--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\Nouveau dossier\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15819C46-58CA-4F57-A59A-715728E819C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA0A30C-EB44-4DEE-A19D-D8F047351397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,24 +30,9 @@
     <t>Burndown chart</t>
   </si>
   <si>
-    <t>Sprint Review</t>
-  </si>
-  <si>
-    <t>Sprint rétrospective</t>
-  </si>
-  <si>
-    <t>Daily Scrum</t>
-  </si>
-  <si>
     <t>Product backlog</t>
   </si>
   <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>Backlog Refinement</t>
-  </si>
-  <si>
     <t>scrum team</t>
   </si>
   <si>
@@ -55,9 +40,6 @@
   </si>
   <si>
     <t>Sprint backlog</t>
-  </si>
-  <si>
-    <t>Sprint planning</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint </t>
@@ -127,170 +109,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> est pour le PO.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3 heures max, cérémonie scrum en fermeture du sprint qui se réalise juste après la sprint Review. C'est pour les developers (ou pour la scrum team, donc le PO y participe et peut adapter le "done". 
-( pour les processus) Sert à </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>améliorer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour les prochains sprints, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>identifier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ce qui a été bien et qui a du potentiel d'amélioration, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>analyser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ce qui s'est passé &gt;&gt; &gt;&gt;&gt; people, relationships, process, and tool.
-if </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>improvement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> possible, include at least 1 high priority process for the next.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8h max (4h/2semaines, 8h/1mois), responsable: scrum team, pas la place des key stakeholders mais ils peuvent y assister.
-Participants : la scrum team (scrum master, product owner, developers). Others possible to provide </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>technical advice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Comment le travail sera fait pour le prochain increment ? (work needed to deliver)
-Qu'est-ce qui sera livré? (delivered in the Increment resulting).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">input </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: last sprint, product backlog, past performance, last increment.
-L'important est la plannification </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>des premiers jours</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
     </r>
   </si>
   <si>
@@ -395,35 +213,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Plan of work for next 24h, inspecting work since the last, forecasting upcoming sprint work.
-Dev team, 15 minutes peu importe la taille de l'équipe, tous les jours, le matin ou l'après-midi.
-PAS DE FORMAT DEFINI : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>questions ou discussion, tout est possible</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, le scrum master ne la "conduit" pas.
-3 questions du scrum master : je vois les obstacles qui empêchent d'aller au but, j'ai vu hier ce qui peut aider les developers, je peux les aider aujourd'hui à atteindre ce but. --NO CANCELLATION ALLOWED--.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Developers (responsable du suivi du travail restant), la définition de "done" </t>
     </r>
     <r>
@@ -619,222 +408,10 @@
     </r>
   </si>
   <si>
-    <t>ils mélangent les versions (ancienne-nouvelle) dans les questions de la certif. Si dans la question, dev team : ancienne, si developers : nouvelle.</t>
-  </si>
-  <si>
-    <t>au 01/03/21, certifs obtenues avec Mourad durant sa session de décembre : 8sm 6po</t>
-  </si>
-  <si>
     <t>the Stakeholders</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Pour toute question où il y a la notion d'obligation, la réponse sera </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>proxy PO : son adjoint</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Responsable : PO uniquement.
-Les developers peuvent faire des changements </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>avec l'accord du PO (attention au sens de la question)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Les developers sont responsable des </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">estimations.      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Any technique should be used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>representing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> product backlog items.
-developers </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>should</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> use the same product backlog.    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ready</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint.
-&gt; dynamic, never complete, existe tant que le produit existe.
-C'est </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la seule source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour tout changement du produit.     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optionnel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Management : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PO responsable.
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1138,145 +715,6 @@
   </si>
   <si>
     <t>Le mot scrum est apparu en 1995, l'agilité en 2001, le scrum guide en 2010.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Le PO, developers. BEFORE : "consume not more than 10% of the capacity of the developers"    NOW : à l'appréciation.
-Not for the current sprint in progress.
-Ongoing process, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>act of adding detail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cancellation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : PO only (OR </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if sprint goal obsolete ( ou inatteignable)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).
-Longueur maximale : 1 mois sinon, pas de norme selon de scrum guide MAIS on établit sa </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>longueur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> en fonction : de la possibilité d'être en réunion avec les stakeholders et des "done" pouvant être faits + fréquemment.
-La qualité ne doit pas baisser, l'objectif ne doit pas être mis en danger, scope may be clarified and re-negociated.
-Le sprint est le SEUL moment dans lequel </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>on n'inspecte pas et on n'adapte pas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">At the end </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>of the sprint : the delivery is working, functional, DONE.</t>
-    </r>
   </si>
   <si>
     <t>4 heures max, but : présenter le produit (travail réalisé) durant le sprint en cours OU "a revisited product backlog". 
@@ -1386,8 +824,15 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">C'est un servant, helping developers to create value, removing impediments, coaching the developers.
+    <t>ils mélangent les versions (ancienne/nouvelle) dans les questions de la certif. Si dans la question, il y a "dev team" : ancienne, 
+si "developers" : nouvelle.</t>
+  </si>
+  <si>
+    <t>Definition of DONE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C'est un servant leader sans pouvoir, helping developers to create value, removing impediments, coaching the developers.
 </t>
     </r>
     <r>
@@ -1453,8 +898,602 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and teaching scrum events, techniques for product backlog management, empirical env.
+      <t xml:space="preserve"> and teaching scrum events, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>techniques for product backlog management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, empirical env.
 Si le PO a des soucis avec les user stories, il peut les rédiger.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint Review
+(événement scrum)</t>
+  </si>
+  <si>
+    <t>Sprint rétrospective
+(événement scrum)</t>
+  </si>
+  <si>
+    <t>Sprint planning
+(événement scrum)</t>
+  </si>
+  <si>
+    <t>Daily Scrum
+(événement scrum)</t>
+  </si>
+  <si>
+    <t>1 mois : 20 jours de travail.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancellation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : PO only (OR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if sprint goal obsolete ( ou inatteignable)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">). Le sprint zero n'existe pas.
+Longueur maximale : 1 mois sinon, pas de norme selon de scrum guide MAIS on établit sa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>longueur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en fonction : de la possibilité d'être en réunion avec les stakeholders et des "done" pouvant être faits + fréquemment.
+La qualité ne doit pas baisser, l'objectif ne doit pas être mis en danger, scope may be clarified and re-negociated.
+Le sprint est le SEUL moment dans lequel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on n'inspecte pas et on n'adapte pas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Durant le sprint &gt; choix des besoins livrables le mois, spec f, dev, test, livraison.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">At the end </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of the sprint : the delivery is working, functional, DONE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plan of work for next 24h, inspecting work since the last, forecasting upcoming sprint work.
+Dev team, 15 minutes peu importe la taille de l'équipe, debout ou pas, tous les jours, le matin ou l'après-midi.
+BEFORE : 3 questions &gt; hier, aujourd'hui, blocages. NOW : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">questions ou discussion, tout est possible.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le scrum master ne la "conduit" pas.
+3 questions du scrum master : je vois les obstacles qui empêchent d'aller au but, j'ai vu hier ce qui peut aider les developers, je peux les aider aujourd'hui à atteindre ce but. --NO CANCELLATION ALLOWED--.</t>
+    </r>
+  </si>
+  <si>
+    <t>Backlog Refinement 
+ou Grooming
+(non événement)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le PO, developers. BEFORE : "consume not more than 10% of the capacity of the developers"    NOW : à l'appréciation.
+Not for the current sprint in progress, on prépare le sprint suivant à la mi-sprint, durée à la convenance.
+Ongoing process, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>act of adding detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Responsable : PO uniquement.
+Les developers peuvent faire des changements </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>avec l'accord du PO (attention au sens de la question)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Les developers sont responsable des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">estimations.      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any technique should be used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>representing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> product backlog items. Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le product backlog.
+developers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use the same product backlog.    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint.
+&gt; dynamic, never complete, existe tant que le produit existe.
+C'est </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la seule source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour tout changement du produit.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optionnel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Management : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PO responsable.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 heures max, cérémonie scrum en fermeture du sprint qui se réalise juste après la sprint Review. C'est pour la scrum team, donc le PO y participe et peut adapter le "done". 
+( pour les processus) Sert à </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>améliorer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour les prochains sprints, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>identifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ce qui a été bien et qui a du potentiel d'amélioration, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>analyser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ce qui s'est passé &gt;&gt; &gt;&gt;&gt; people, relationships, process, and tool.
+if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>improvement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> possible, include at least 1 high priority process for the next.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pour toute question où il y a la notion d'obligation, la réponse sera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8h max (4h/2semaines, 8h/1mois), responsable: scrum team, pas la place des stakeholders mais ils peuvent y assister.
+Participants : la scrum team (scrum master, product owner, developers). Others possible to provide </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>technical advice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Comment le travail sera fait pour le prochain increment ? (work needed to deliver)
+Qu'est-ce qui sera livré? (delivered in the Increment resulting).
+Le BA rédige les user stories.
+les questions sur le choix des user stories : why, what, how. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">input </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: last sprint, product backlog, past performance, last increment.
+L'important est la plannification </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>des premiers jours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Les developers se défendent avec la vélocité.</t>
     </r>
   </si>
 </sst>
@@ -1462,7 +1501,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1550,13 +1589,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1571,7 +1649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1591,12 +1669,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1871,217 +1966,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="98.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="C1" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:3" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:3" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="17" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:3" ht="190.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="7" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="25" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:3" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:3" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" ht="98.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="31" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:2" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:2" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:2" ht="103.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:2" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\Nouveau dossier\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA0A30C-EB44-4DEE-A19D-D8F047351397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D3C9D8-F93B-4BAD-8987-051ED0F6A525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Burndown chart</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Sprint backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint </t>
   </si>
   <si>
     <t xml:space="preserve">Scrum </t>
@@ -313,9 +310,6 @@
     <t>DIVERS</t>
   </si>
   <si>
-    <t>association avec PMI-ACP : être moins prescriptif mais plus descriptif d'où les changements.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -717,8 +711,478 @@
     <t>Le mot scrum est apparu en 1995, l'agilité en 2001, le scrum guide en 2010.</t>
   </si>
   <si>
-    <t>4 heures max, but : présenter le produit (travail réalisé) durant le sprint en cours OU "a revisited product backlog". 
-C'est pour les stakeholders, scrum master, developers, PO.    It's not JUST a demo et possible de ne rien livrer.</t>
+    <t>ils mélangent les versions (ancienne/nouvelle) dans les questions de la certif. Si dans la question, il y a "dev team" : ancienne, 
+si "developers" : nouvelle.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C'est un servant leader sans pouvoir, helping developers to create value, removing impediments, coaching the developers.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is responsible for conducting the Daily Scrum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. NOW : Il est </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>responsable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la réussite de la scrum team.
+Leading &amp; coaching org, working with other scrum masters, planning scrum implementations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Facilitating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and teaching scrum events, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>techniques for product backlog management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, empirical env.
+Si le PO a des soucis avec les user stories, il peut les rédiger.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint Review
+(événement scrum)</t>
+  </si>
+  <si>
+    <t>Sprint rétrospective
+(événement scrum)</t>
+  </si>
+  <si>
+    <t>Sprint planning
+(événement scrum)</t>
+  </si>
+  <si>
+    <t>Daily Scrum
+(événement scrum)</t>
+  </si>
+  <si>
+    <t>1 mois : 20 jours de travail.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancellation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : PO only (OR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if sprint goal obsolete ( ou inatteignable)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">). Le sprint zero n'existe pas.
+Longueur maximale : 1 mois sinon, pas de norme selon de scrum guide MAIS on établit sa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>longueur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en fonction : de la possibilité d'être en réunion avec les stakeholders et des "done" pouvant être faits + fréquemment.
+La qualité ne doit pas baisser, l'objectif ne doit pas être mis en danger, scope may be clarified and re-negociated.
+Le sprint est le SEUL moment dans lequel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on n'inspecte pas et on n'adapte pas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Durant le sprint &gt; choix des besoins livrables le mois, spec f, dev, test, livraison.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">At the end </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of the sprint : the delivery is working, functional, DONE.</t>
+    </r>
+  </si>
+  <si>
+    <t>Backlog Refinement 
+ou Grooming
+(non événement)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le PO, developers. BEFORE : "consume not more than 10% of the capacity of the developers"    NOW : à l'appréciation.
+Not for the current sprint in progress, on prépare le sprint suivant à la mi-sprint, durée à la convenance.
+Ongoing process, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>act of adding detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Responsable : PO uniquement.
+Les developers peuvent faire des changements </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>avec l'accord du PO (attention au sens de la question)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Les developers sont responsable des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">estimations.      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any technique should be used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>representing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> product backlog items. Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le product backlog.
+developers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use the same product backlog.    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint.
+&gt; dynamic, never complete, existe tant que le produit existe.
+C'est </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la seule source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour tout changement du produit.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optionnel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Management : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PO responsable.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour toute question où il y a la notion d'obligation, la réponse sera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FALSE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(le but est de réduire les obligations).</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint 
+(événement scrum)</t>
+  </si>
+  <si>
+    <t>association avec PMI-ACP : être moins prescriptif mais plus descriptif d'où les changements dans le scrum guide.</t>
   </si>
   <si>
     <r>
@@ -788,16 +1252,86 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> to its engineering practices whenever needed. 
+      <t xml:space="preserve"> to its engineering practices whenever needed.
 </t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User story</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plan of work for next 24h, inspecting work since the last, forecasting upcoming sprint work.
+Developers only, 15 minutes peu importe la taille de l'équipe, debout ou pas, tous les jours, le matin.
+BEFORE : 3 questions &gt; hier, aujourd'hui, blocages. NOW : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">questions ou discussion, tout est possible.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le scrum master ne la "conduit" pas.
+3 questions du scrum master : je vois les obstacles qui empêchent d'aller au but, j'ai vu hier ce qui peut aider les developers, je peux les aider aujourd'hui à atteindre ce but. 
+--NO CANCELLATION ALLOWED--</t>
+    </r>
+  </si>
+  <si>
+    <t>KANBAN</t>
+  </si>
+  <si>
+    <t>Sur le tableau avec les colonnes, limiter le "en cours" (Work In Progress).</t>
+  </si>
+  <si>
+    <t>Definition of Ready
+DOR</t>
+  </si>
+  <si>
+    <t>La user story est claire, précise et comprise. Pour la scrum team, le PO peut y assister. Se fait n'importe quand.</t>
+  </si>
+  <si>
+    <t>Definition of DONE
+DOD</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">sprint backlog, product backlog, defintion of done, increment (à voir).   
 Inspect frequently, but it should not get in the way of the work.   Sprint goal provides guidance.
 PILARS : TIA &gt; transparency (responsable scrum master), adaptation, inspection. Le PO monitore.
-Increment (livrable respectant le DOD*) : somme de tous les product backlog items and the value, </t>
+Increment (livrable respectant le DOD) : somme de tous les product backlog items and the value, </t>
     </r>
     <r>
       <rPr>
@@ -818,43 +1352,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, géré par le PO, valuable when it reduces operational costs and increases customer satisfasfaction, includes regression testing. 
+      <t xml:space="preserve">, géré par le PO, valuable when it reduces operational costs and increases customer satisfasfaction, includes regression testing. 
 Si retard dû à un élément manquant, être sûr d'avoir des tâches à faire pour le prochain sprint en attendant.
-*DOD : definition of done.</t>
-    </r>
-  </si>
-  <si>
-    <t>ils mélangent les versions (ancienne/nouvelle) dans les questions de la certif. Si dans la question, il y a "dev team" : ancienne, 
-si "developers" : nouvelle.</t>
-  </si>
-  <si>
-    <t>Definition of DONE</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C'est un servant leader sans pouvoir, helping developers to create value, removing impediments, coaching the developers.
 </t>
     </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Is responsible for conducting the Daily Scrum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. NOW : Il est </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8h max pour 1 mois et si moins alors "less",  responsable: scrum team, pas la place des stakeholders mais ils peuvent y assister.
+Participants : la scrum team (scrum master, product owner, developers). Others possible to provide </t>
     </r>
     <r>
       <rPr>
@@ -865,591 +1371,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>responsable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de la réussite de la scrum team.
-Leading &amp; coaching org, working with other scrum masters, planning scrum implementations.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Facilitating</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and teaching scrum events, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>techniques for product backlog management</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, empirical env.
-Si le PO a des soucis avec les user stories, il peut les rédiger.</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprint Review
-(événement scrum)</t>
-  </si>
-  <si>
-    <t>Sprint rétrospective
-(événement scrum)</t>
-  </si>
-  <si>
-    <t>Sprint planning
-(événement scrum)</t>
-  </si>
-  <si>
-    <t>Daily Scrum
-(événement scrum)</t>
-  </si>
-  <si>
-    <t>1 mois : 20 jours de travail.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cancellation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : PO only (OR </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if sprint goal obsolete ( ou inatteignable)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">). Le sprint zero n'existe pas.
-Longueur maximale : 1 mois sinon, pas de norme selon de scrum guide MAIS on établit sa </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>longueur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> en fonction : de la possibilité d'être en réunion avec les stakeholders et des "done" pouvant être faits + fréquemment.
-La qualité ne doit pas baisser, l'objectif ne doit pas être mis en danger, scope may be clarified and re-negociated.
-Le sprint est le SEUL moment dans lequel </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>on n'inspecte pas et on n'adapte pas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Durant le sprint &gt; choix des besoins livrables le mois, spec f, dev, test, livraison.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">At the end </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>of the sprint : the delivery is working, functional, DONE.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Plan of work for next 24h, inspecting work since the last, forecasting upcoming sprint work.
-Dev team, 15 minutes peu importe la taille de l'équipe, debout ou pas, tous les jours, le matin ou l'après-midi.
-BEFORE : 3 questions &gt; hier, aujourd'hui, blocages. NOW : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">questions ou discussion, tout est possible.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Le scrum master ne la "conduit" pas.
-3 questions du scrum master : je vois les obstacles qui empêchent d'aller au but, j'ai vu hier ce qui peut aider les developers, je peux les aider aujourd'hui à atteindre ce but. --NO CANCELLATION ALLOWED--.</t>
-    </r>
-  </si>
-  <si>
-    <t>Backlog Refinement 
-ou Grooming
-(non événement)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Le PO, developers. BEFORE : "consume not more than 10% of the capacity of the developers"    NOW : à l'appréciation.
-Not for the current sprint in progress, on prépare le sprint suivant à la mi-sprint, durée à la convenance.
-Ongoing process, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>act of adding detail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Responsable : PO uniquement.
-Les developers peuvent faire des changements </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>avec l'accord du PO (attention au sens de la question)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Les developers sont responsable des </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">estimations.      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Any technique should be used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>representing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> product backlog items. Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le product backlog.
-developers </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>should</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> use the same product backlog.    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ready</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint.
-&gt; dynamic, never complete, existe tant que le produit existe.
-C'est </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la seule source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour tout changement du produit.     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optionnel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Management : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PO responsable.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3 heures max, cérémonie scrum en fermeture du sprint qui se réalise juste après la sprint Review. C'est pour la scrum team, donc le PO y participe et peut adapter le "done". 
-( pour les processus) Sert à </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>améliorer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour les prochains sprints, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>identifier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ce qui a été bien et qui a du potentiel d'amélioration, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>analyser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ce qui s'est passé &gt;&gt; &gt;&gt;&gt; people, relationships, process, and tool.
-if </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>improvement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> possible, include at least 1 high priority process for the next.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pour toute question où il y a la notion d'obligation, la réponse sera </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8h max (4h/2semaines, 8h/1mois), responsable: scrum team, pas la place des stakeholders mais ils peuvent y assister.
-Participants : la scrum team (scrum master, product owner, developers). Others possible to provide </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>technical advice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
+      <t xml:space="preserve">technical advice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TOUT LE MONDE PEUT Y ASSISTER.
 Comment le travail sera fait pour le prochain increment ? (work needed to deliver)
 Qu'est-ce qui sera livré? (delivered in the Increment resulting).
 Le BA rédige les user stories.
-les questions sur le choix des user stories : why, what, how. 
+NEW : Les questions sur le choix des user stories : why (sprint goal), what (product backlog items), how (tasks). 
 </t>
     </r>
     <r>
@@ -1493,7 +1429,102 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. Les developers se défendent avec la vélocité.</t>
+      <t>. Les developers se défendent avec la vélocité (Business Value pour le client, Story Points pour la scrum team).</t>
+    </r>
+  </si>
+  <si>
+    <t>4 heures max pour 1 mois et si moins alors "less", but : présenter le produit (travail réalisé) durant le sprint en cours OU "a revisited product backlog", inspecter le résultat. 
+C'est pour les stakeholders, scrum master, developers, PO, TOUT LE MONDE PEUT Y ASSISTER.   It's not JUST a demo et possible de ne rien livrer.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 heures max, cérémonie scrum en fermeture du sprint qui se réalise juste après la sprint Review. C'est pour la scrum team, donc le PO y participe et peut adapter le "done". 
+( pour les processus) Sert à </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>améliorer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour les prochains sprints, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>identifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ce qui a été bien et qui a du potentiel d'amélioration (continue), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>analyser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ce qui s'est passé &gt;&gt; &gt;&gt;&gt; people, relationships, process, and tool.
+if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>improvement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> possible, include at least 1 high priority process for the next.</t>
     </r>
   </si>
 </sst>
@@ -1574,14 +1605,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="14"/>
       <color theme="1"/>
@@ -1604,6 +1627,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1611,12 +1642,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1636,8 +1661,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1645,11 +1676,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1660,25 +1706,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1966,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1981,205 +2045,315 @@
     <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" ht="190.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:3" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" ht="159" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:3" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:3" ht="190.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:3" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:3" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:2" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:2" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="C42" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\Nouveau dossier\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D3C9D8-F93B-4BAD-8987-051ED0F6A525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F830431C-A94C-4590-83BF-3118858C2441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Burndown chart</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Product backlog</t>
   </si>
   <si>
-    <t>scrum team</t>
-  </si>
-  <si>
     <t>Scrum artifacts</t>
   </si>
   <si>
@@ -46,32 +43,6 @@
   </si>
   <si>
     <t>Le PO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">How much is known about the Product over time . </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SI déviation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt;&gt;&gt; correction "as soon as possible".</t>
-    </r>
   </si>
   <si>
     <t>Le Scrum Master</t>
@@ -118,98 +89,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">The Product Backlog items selected for this sprint + the plan for delivering them, it is the developer's plan.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>changes during sprint:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> developers ONLY (belongs solely, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>possible to add new work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).
-Utiliser la fin du dernier sprint pour plannifier </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>les premiers jours</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> du nouveau sprint.
-La modification / rééstimations des </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>user stories</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> est préférable à l'annulation d'un sprint.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Developers (responsable du suivi du travail restant), la définition de "done" </t>
     </r>
     <r>
@@ -524,186 +403,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1 seul PO par projet, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">origine scrum : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>empirisme</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (xp) et </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pensée lean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BEFORE : dev team : BA*, testeur, dev inf. NOW : developers : BA, testeur, developers inf.
-BEFORE : scrum team &gt; PO, SM, dev team. NOW : scrum team &gt; developers, PO, SM.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">BEFORE : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dev team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; entre 3 et 9 personnes. NOW : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scrum team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; 10 personnes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maximum</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*BA : Business Analyst.</t>
-    </r>
-  </si>
-  <si>
     <t>How much work remains till the end of the sprint, shows the evolution of remaining effort against time.
 Responsable : developers.</t>
   </si>
@@ -973,186 +672,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Responsable : PO uniquement.
-Les developers peuvent faire des changements </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>avec l'accord du PO (attention au sens de la question)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Les developers sont responsable des </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">estimations.      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Any technique should be used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>representing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> product backlog items. Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le product backlog.
-developers </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>should</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> use the same product backlog.    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ready</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint.
-&gt; dynamic, never complete, existe tant que le produit existe.
-C'est </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la seule source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour tout changement du produit.     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optionnel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Management : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PO responsable.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Pour toute question où il y a la notion d'obligation, la réponse sera </t>
     </r>
     <r>
@@ -1180,103 +699,6 @@
   <si>
     <t>Sprint 
 (événement scrum)</t>
-  </si>
-  <si>
-    <t>association avec PMI-ACP : être moins prescriptif mais plus descriptif d'où les changements dans le scrum guide.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">user-story, velocity, definition of ready &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
-La vélocité est une mesure de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maturité</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
-Composition des équipes de dev en fonction de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"self-organization"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Developers : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Adjustments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to its engineering practices whenever needed.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User story</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1325,37 +747,6 @@
   <si>
     <t>Definition of DONE
 DOD</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sprint backlog, product backlog, defintion of done, increment (à voir).   
-Inspect frequently, but it should not get in the way of the work.   Sprint goal provides guidance.
-PILARS : TIA &gt; transparency (responsable scrum master), adaptation, inspection. Le PO monitore.
-Increment (livrable respectant le DOD) : somme de tous les product backlog items and the value, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fait par les developers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, géré par le PO, valuable when it reduces operational costs and increases customer satisfasfaction, includes regression testing. 
-Si retard dû à un élément manquant, être sûr d'avoir des tâches à faire pour le prochain sprint en attendant.
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1527,12 +918,692 @@
       <t xml:space="preserve"> possible, include at least 1 high priority process for the next.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 seul PO par projet, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">origine scrum : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empirisme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (xp) et </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pensée lean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BEFORE : dev team &gt; BA*, testeur, dev inf. NOW : developers &gt; BA, testeur, developers inf.
+BEFORE : scrum team &gt; PO, SM, dev team. NOW : scrum team &gt; developers, PO, SM.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BEFORE : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dev team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; entre 3 et 9 personnes. NOW : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scrum team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 10 personnes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximum</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*BA : Business Analyst.</t>
+    </r>
+  </si>
+  <si>
+    <t>Scrum team</t>
+  </si>
+  <si>
+    <t>collaboration avec PMI-PMI qui impose d'être moins prescriptif mais plus descriptif d'où les changements dans le scrum guide 2020.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Responsable : PO uniquement.
+Les developers sont responsable des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">estimations.      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any technique should be used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>representing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> product backlog items. Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le product backlog.
+developers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use the same product backlog.    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint. Il peut se faire aider par le scrum master notamment.
+&gt; dynamic, never complete, existe tant que le produit existe.
+C'est </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la seule source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour tout changement du produit.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optionnel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Management : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> responsable et </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ordonne comme il veut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">First couple sprints. Au bout du 5ème sprint, on commence à connaitre la vélocité. How much is known about the Product over time . </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SI déviation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;&gt;&gt; correction "as soon as possible".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user-story, velocity, definition of ready &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
+La vélocité est une mesure de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maturité</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
+Composition des équipes de dev en fonction de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"self-organization"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Developers : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adjustments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to its engineering practices whenever needed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User story</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
+Méthode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moscow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prioriser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selon les points accordés aux Should et Could.
+Planning Poker : story points estimés avec la business value et la complexité de dév.
+(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Increment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il y en a 3 : product backlog (product goal), sprint backlog (sprint goal), increment (DOD).   
+Inspect frequently, but it should not get in the way of the work.   Sprint goal provides guidance.
+PILARS : TIA &gt; transparency (responsable scrum master), adaptation, inspection. Le PO monitore.
+Si retard dû à un élément manquant, être sûr d'avoir des tâches à faire pour le prochain sprint en attendant.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Product Backlog items selected for this sprint + the plan for delivering them, it is the developer's plan.    NEW : Les questions sur le choix des user stories : why (sprint goal), what (product backlog items), how (tasks). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>changes during sprint:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>developers ONLY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (belongs solely, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>possible to add new work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).
+Utiliser la fin du dernier sprint pour plannifier </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>les premiers jours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> du nouveau sprint.
+La modification / rééstimations des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user stories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> est préférable à l'annulation d'un sprint.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Une user storie devient increment si respect du DOD, il peut être livré (en prod ou non). 
+C'est la somme de tous les product backlog items and the value, fait par les developers, valuable when it reduces operational costs and increases customer satisfasfaction, includes regression testing. </t>
+  </si>
+  <si>
+    <t>rolling wave, sans fin.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1591,29 +1662,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1631,6 +1679,46 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1695,7 +1783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1703,16 +1791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1721,29 +1800,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2030,15 +2121,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="17" customWidth="1"/>
     <col min="2" max="2" width="76.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
@@ -2046,314 +2137,330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" ht="190.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="37" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="159" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" ht="190.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:3" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="8"/>
+      <c r="C44" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\Nouveau dossier\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F830431C-A94C-4590-83BF-3118858C2441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5469E79F-ED19-4DB2-9985-629822973B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
-    <t>Burndown chart</t>
-  </si>
-  <si>
     <t>Product backlog</t>
   </si>
   <si>
@@ -77,106 +74,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> est pour le PO.</t>
-    </r>
-  </si>
-  <si>
-    <t>Scrum master, product owner, developers.  
-Différentes équipes scrum d'un même produit peuvent NE PAS avoir des sprints de longueur différente (does not require) et ne pas avoir de sprint "alignés".
-Elle fait le SPRINT PLANNING, responsible for crafting the sprint goal during it. Elle doit être autosuffisante.
-Qualités importantes : flexibility, creativity, productivity.
-Should have all competencies, should choose how best to accomplish their work.
-If a 2nd scrum team is added, productivity is likely to decrease.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Developers (responsable du suivi du travail restant), la définition de "done" </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>créée par les developers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> peut possiblement </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s'adapter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à chaque RETRO </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>par la scrum team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, n'aide pas à calculer la vélocité.
-DONE est l'objectif, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pas la réduction de la dette technique par un sprint spécial (hardening)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-Doit respecter : conventions &amp; standards, same definition for other teams working on the same product.
-ensures artifact transparency, is used to acces, guides the developers.</t>
     </r>
   </si>
   <si>
@@ -403,13 +300,6 @@
     </r>
   </si>
   <si>
-    <t>How much work remains till the end of the sprint, shows the evolution of remaining effort against time.
-Responsable : developers.</t>
-  </si>
-  <si>
-    <t>Le mot scrum est apparu en 1995, l'agilité en 2001, le scrum guide en 2010.</t>
-  </si>
-  <si>
     <t>ils mélangent les versions (ancienne/nouvelle) dans les questions de la certif. Si dans la question, il y a "dev team" : ancienne, 
 si "developers" : nouvelle.</t>
   </si>
@@ -1330,145 +1220,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">user-story, velocity, definition of ready &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
-La vélocité est une mesure de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maturité</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
-Composition des équipes de dev en fonction de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"self-organization"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Developers : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Adjustments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to its engineering practices whenever needed.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User story</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
-Méthode </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moscow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prioriser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> selon les points accordés aux Should et Could.
-Planning Poker : story points estimés avec la business value et la complexité de dév.
-(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
-</t>
-    </r>
-  </si>
-  <si>
     <t>Increment</t>
   </si>
   <si>
@@ -1597,6 +1348,282 @@
   </si>
   <si>
     <t>rolling wave, sans fin.</t>
+  </si>
+  <si>
+    <t>Burndup/Burndown chart, KPI</t>
+  </si>
+  <si>
+    <t>How much work remains till the end of the sprint, shows the evolution of remaining effort against time. 
+NEW : KPI &gt; cumulative flow diagram : reduire la colonne "en cours".
+NEW : KPI &gt; vélocité :  des story points (mesure sur 5 sprints), pour savoir nbre pts/sprint.
+UP : Outil non précis et ne prévoit pas.
+DOWN : analyse de tendance et prévision.
+Responsable : developers.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Developers (responsable du suivi du travail restant), la définition de "done" </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>créée par les developers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> peut possiblement </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s'adapter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à chaque RETRO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>par la scrum team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, n'aide pas à calculer la vélocité.
+DONE est l'objectif, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pas la réduction de la dette technique par un sprint spécial (hardening)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Doit respecter : conventions &amp; standards, same definition for other teams working on the same product, pas de travail supplémentaire à faire.
+ensures artifact transparency, is used to acces, guides the developers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user-story, velocity, definition of ready &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
+La vélocité est une mesure de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maturité</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
+Composition des équipes de dev en fonction de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"self-organization"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Developers : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adjustments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to its engineering practices whenever needed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User story</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
+Méthode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moscow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prioriser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selon les points accordés aux Should et Could.
+Planning Poker : story points estimés avec la business value et la complexité de dév.
+(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dette technique : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non respect de la conception voulue ou non induisant des coûts supplémentaires vus comme des interêts.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Scrum master, product owner, developers.  
+Différentes équipes scrum d'un même produit peuvent NE PAS avoir des sprints de longueur différente (does not require) et ne pas avoir de sprint "alignés".
+Elle fait le SPRINT PLANNING, responsible for crafting the sprint goal during it. Elle doit être autosuffisante.
+Qualités importantes : flexibility, creativity, productivity.
+Should have all competencies, should choose how best to accomplish their work.
+If a 2nd scrum team is added, productivity is likely to decrease.
+BEFORE : self-organizing, NOW : self-managing.</t>
+  </si>
+  <si>
+    <t>Le mot scrum est apparu en 1995, l'agilité en 2001, le 1er scrum guide en 2011, le 2ème en 2020.</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2151,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2140,18 +2167,18 @@
       <c r="A1" s="12"/>
       <c r="B1" s="3"/>
       <c r="C1" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2159,15 +2186,15 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2177,13 +2204,13 @@
     </row>
     <row r="6" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2193,13 +2220,13 @@
     </row>
     <row r="8" spans="1:3" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2209,13 +2236,13 @@
     </row>
     <row r="10" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2225,10 +2252,10 @@
     </row>
     <row r="12" spans="1:3" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5"/>
     </row>
@@ -2239,13 +2266,13 @@
     </row>
     <row r="14" spans="1:3" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2255,10 +2282,10 @@
     </row>
     <row r="16" spans="1:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5"/>
     </row>
@@ -2269,10 +2296,10 @@
     </row>
     <row r="18" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -2283,10 +2310,10 @@
     </row>
     <row r="20" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
@@ -2297,10 +2324,10 @@
     </row>
     <row r="22" spans="1:3" ht="190.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -2311,10 +2338,10 @@
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5"/>
     </row>
@@ -2325,10 +2352,10 @@
     </row>
     <row r="26" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C26" s="5"/>
     </row>
@@ -2339,10 +2366,10 @@
     </row>
     <row r="28" spans="1:3" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5"/>
     </row>
@@ -2353,10 +2380,10 @@
     </row>
     <row r="30" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -2367,10 +2394,10 @@
     </row>
     <row r="32" spans="1:3" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C32" s="5"/>
     </row>
@@ -2381,13 +2408,13 @@
     </row>
     <row r="34" spans="1:3" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2397,13 +2424,13 @@
     </row>
     <row r="36" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2413,10 +2440,10 @@
     </row>
     <row r="38" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C38" s="5"/>
     </row>
@@ -2427,10 +2454,10 @@
     </row>
     <row r="40" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="5"/>
     </row>
@@ -2441,10 +2468,10 @@
     </row>
     <row r="42" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C42" s="5"/>
     </row>
@@ -2453,12 +2480,12 @@
       <c r="B43" s="3"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C44" s="5"/>
     </row>

--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\Nouveau dossier\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5469E79F-ED19-4DB2-9985-629822973B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6A78B7-AD07-4AF7-A098-43F3320626F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,122 +184,6 @@
     <t>proxy PO : son adjoint</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sa responsabilité : la product backlog, pas le produit ni du delivery.
-Interêts : le produit, ordering items, optimizing value, keep visible &amp; transparent the work on next., les stakholder ( le PO prend le feedback de ces derniers pour évaluer la VALEUR).
-monitoring progress toward high-level </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>goals.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   He is the chief product </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>visionary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KVA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : current value, ability to innovate, time-to-market (expert).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pas le problème du PO :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> coach the developers, remove impediments to the developers.
-Iterating vision every sprint, planning features, articulating the product vision (early and often).
-Releases ? C'est le PO </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>qui décide la mise en prod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>... the risk for the value, absorption by the customer, the costs and benefits, the constraints by the new release.Il peut déléguer l'écriture des user-stories aux developers mais il en est responsable.</t>
-    </r>
-  </si>
-  <si>
     <t>ils mélangent les versions (ancienne/nouvelle) dans les questions de la certif. Si dans la question, il y a "dev team" : ancienne, 
 si "developers" : nouvelle.</t>
   </si>
@@ -589,37 +473,6 @@
   <si>
     <t>Sprint 
 (événement scrum)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Plan of work for next 24h, inspecting work since the last, forecasting upcoming sprint work.
-Developers only, 15 minutes peu importe la taille de l'équipe, debout ou pas, tous les jours, le matin.
-BEFORE : 3 questions &gt; hier, aujourd'hui, blocages. NOW : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">questions ou discussion, tout est possible.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Le scrum master ne la "conduit" pas.
-3 questions du scrum master : je vois les obstacles qui empêchent d'aller au but, j'ai vu hier ce qui peut aider les developers, je peux les aider aujourd'hui à atteindre ce but. 
---NO CANCELLATION ALLOWED--</t>
-    </r>
   </si>
   <si>
     <t>KANBAN</t>
@@ -1450,167 +1303,6 @@
       <t>.
 Doit respecter : conventions &amp; standards, same definition for other teams working on the same product, pas de travail supplémentaire à faire.
 ensures artifact transparency, is used to acces, guides the developers.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">user-story, velocity, definition of ready &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
-La vélocité est une mesure de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maturité</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
-Composition des équipes de dev en fonction de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"self-organization"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Developers : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Adjustments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to its engineering practices whenever needed.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User story</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
-Méthode </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moscow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prioriser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> selon les points accordés aux Should et Could.
-Planning Poker : story points estimés avec la business value et la complexité de dév.
-(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dette technique : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">non respect de la conception voulue ou non induisant des coûts supplémentaires vus comme des interêts.
-</t>
     </r>
   </si>
   <si>
@@ -1624,6 +1316,315 @@
   </si>
   <si>
     <t>Le mot scrum est apparu en 1995, l'agilité en 2001, le 1er scrum guide en 2011, le 2ème en 2020.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">burndown chart &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
+La vélocité est une mesure de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maturité</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
+Composition des équipes de dev en fonction de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"self-organization"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Developers : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adjustments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to its engineering practices whenever needed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User story</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
+Méthode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moscow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prioriser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selon les points accordés aux Should et Could.
+Planning Poker : story points estimés avec la business value et la complexité de dév.
+(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dette technique : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non respect de la conception voulue ou non induisant des coûts supplémentaires vus comme des interêts.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plan of work for next 24h, inspecting work since the last, forecasting upcoming sprint work.
+Developers only, 15 minutes peu importe la taille de l'équipe, debout ou pas, tous les jours, le matin, toujours au même endroit.
+BEFORE : 3 questions &gt; hier, aujourd'hui, blocages. NOW : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">questions ou discussion, tout est possible.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le scrum master ne la "conduit" pas.
+3 questions du scrum master : je vois les obstacles qui empêchent d'aller au but, j'ai vu hier ce qui peut aider les developers, je peux les aider aujourd'hui à atteindre ce but. 
+--NO CANCELLATION ALLOWED--</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sa responsabilité : la product backlog, pas le produit ni du delivery.
+Interêts : le produit, ordering items, optimizing value, keep visible &amp; transparent the work on next., les stakholder ( le PO prend le feedback de ces derniers pour évaluer la VALEUR).
+monitoring progress toward high-level </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>goals.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   He is the chief product </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : current value, ability to innovate, time-to-market (expert).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pas le problème du PO :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> coach the developers, remove impediments to the developers.
+Iterating vision every sprint, planning features, articulating the product vision (early and often).
+Releases ? C'est le PO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qui décide la mise en prod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>... the risk for the value, absorption by the customer, the costs and benefits, the constraints by the new release.Il peut déléguer l'écriture des user-stories aux developers mais il en est responsable.
+Il n'assigne AUCUNE tâche aux developers.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2150,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2175,10 +2176,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2188,13 +2189,13 @@
     </row>
     <row r="4" spans="1:3" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2207,7 +2208,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
@@ -2220,13 +2221,13 @@
     </row>
     <row r="8" spans="1:3" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2236,13 +2237,13 @@
     </row>
     <row r="10" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2252,10 +2253,10 @@
     </row>
     <row r="12" spans="1:3" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5"/>
     </row>
@@ -2266,13 +2267,13 @@
     </row>
     <row r="14" spans="1:3" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2282,10 +2283,10 @@
     </row>
     <row r="16" spans="1:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5"/>
     </row>
@@ -2296,10 +2297,10 @@
     </row>
     <row r="18" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -2313,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5"/>
     </row>
@@ -2327,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -2338,10 +2339,10 @@
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="5"/>
     </row>
@@ -2352,10 +2353,10 @@
     </row>
     <row r="26" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="5"/>
     </row>
@@ -2366,10 +2367,10 @@
     </row>
     <row r="28" spans="1:3" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="5"/>
     </row>
@@ -2380,10 +2381,10 @@
     </row>
     <row r="30" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -2397,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" s="5"/>
     </row>
@@ -2414,7 +2415,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2422,12 +2423,12 @@
       <c r="B35" s="3"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="182.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>13</v>
@@ -2443,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="5"/>
     </row>
@@ -2468,10 +2469,10 @@
     </row>
     <row r="42" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C42" s="5"/>
     </row>

--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\Nouveau dossier\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6A78B7-AD07-4AF7-A098-43F3320626F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31236D1-C8EF-4FFA-8E12-E41AADA3F782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     </r>
   </si>
   <si>
-    <t>corrections à venir</t>
-  </si>
-  <si>
     <t>Professionnal Scrum Master 1 (PSM1)</t>
   </si>
   <si>
@@ -188,99 +185,6 @@
 si "developers" : nouvelle.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">C'est un servant leader sans pouvoir, helping developers to create value, removing impediments, coaching the developers.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Is responsible for conducting the Daily Scrum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. NOW : Il est </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>responsable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de la réussite de la scrum team.
-Leading &amp; coaching org, working with other scrum masters, planning scrum implementations.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Facilitating</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and teaching scrum events, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>techniques for product backlog management</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, empirical env.
-Si le PO a des soucis avec les user stories, il peut les rédiger.</t>
-    </r>
-  </si>
-  <si>
     <t>Sprint Review
 (événement scrum)</t>
   </si>
@@ -662,195 +566,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1 seul PO par projet, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">origine scrum : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>empirisme</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (xp) et </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pensée lean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BEFORE : dev team &gt; BA*, testeur, dev inf. NOW : developers &gt; BA, testeur, developers inf.
-BEFORE : scrum team &gt; PO, SM, dev team. NOW : scrum team &gt; developers, PO, SM.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">BEFORE : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dev team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; entre 3 et 9 personnes. NOW : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scrum team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; 10 personnes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maximum</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*BA : Business Analyst.</t>
-    </r>
-  </si>
-  <si>
     <t>Scrum team</t>
   </si>
   <si>
@@ -1196,17 +911,383 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Une user storie devient increment si respect du DOD, il peut être livré (en prod ou non). 
-C'est la somme de tous les product backlog items and the value, fait par les developers, valuable when it reduces operational costs and increases customer satisfasfaction, includes regression testing. </t>
-  </si>
-  <si>
-    <t>rolling wave, sans fin.</t>
-  </si>
-  <si>
     <t>Burndup/Burndown chart, KPI</t>
   </si>
   <si>
-    <t>How much work remains till the end of the sprint, shows the evolution of remaining effort against time. 
+    <r>
+      <t xml:space="preserve">Developers (responsable du suivi du travail restant), la définition de "done" </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>créée par les developers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> peut possiblement </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s'adapter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à chaque RETRO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>par la scrum team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, n'aide pas à calculer la vélocité.
+DONE est l'objectif, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pas la réduction de la dette technique par un sprint spécial (hardening)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Doit respecter : conventions &amp; standards, same definition for other teams working on the same product, pas de travail supplémentaire à faire.
+ensures artifact transparency, is used to acces, guides the developers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Le mot scrum est apparu en 1995, l'agilité en 2001, le 1er scrum guide en 2011, le 2ème en 2020.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">burndown chart &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
+La vélocité est une mesure de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maturité</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
+Composition des équipes de dev en fonction de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"self-organization"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Developers : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adjustments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to its engineering practices whenever needed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User story</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
+Méthode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moscow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prioriser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selon les points accordés aux Should et Could.
+Planning Poker : story points estimés avec la business value et la complexité de dév.
+(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dette technique : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non respect de la conception voulue ou non induisant des coûts supplémentaires vus comme des interêts.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sa responsabilité : la product backlog, pas le produit ni du delivery.
+Interêts : le produit, les stakholder ( le PO prend le feedback de ces derniers pour évaluer la VALEUR), ordering items, optimizing value, keep visible &amp; transparent the work on next, perform release planning.
+monitoring progress toward high-level </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>goals.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   He is the chief product </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : current value, ability to innovate, time-to-market (expert).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pas le problème du PO :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> coach the developers, remove impediments to the developers.
+Iterating vision every sprint, planning features, articulating the product vision (early and often).
+Releases ? C'est le PO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qui décide la mise en prod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>... the risk for the value, absorption by the customer, the costs and benefits, the constraints by the new release.Il peut déléguer l'écriture des user-stories aux developers mais il en est responsable.
+Il n'assigne AUCUNE tâche aux developers.</t>
+    </r>
+  </si>
+  <si>
+    <t>An estimate of the total work remains till the end of the sprint, shows the evolution of remaining effort against time. 
 NEW : KPI &gt; cumulative flow diagram : reduire la colonne "en cours".
 NEW : KPI &gt; vélocité :  des story points (mesure sur 5 sprints), pour savoir nbre pts/sprint.
 UP : Outil non précis et ne prévoit pas.
@@ -1215,221 +1296,61 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Developers (responsable du suivi du travail restant), la définition de "done" </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>créée par les developers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> peut possiblement </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s'adapter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à chaque RETRO </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>par la scrum team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, n'aide pas à calculer la vélocité.
-DONE est l'objectif, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pas la réduction de la dette technique par un sprint spécial (hardening)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-Doit respecter : conventions &amp; standards, same definition for other teams working on the same product, pas de travail supplémentaire à faire.
-ensures artifact transparency, is used to acces, guides the developers.</t>
-    </r>
-  </si>
-  <si>
-    <t>Scrum master, product owner, developers.  
+      <t xml:space="preserve">Scrum master, product owner, developers.  
 Différentes équipes scrum d'un même produit peuvent NE PAS avoir des sprints de longueur différente (does not require) et ne pas avoir de sprint "alignés".
 Elle fait le SPRINT PLANNING, responsible for crafting the sprint goal during it. Elle doit être autosuffisante.
 Qualités importantes : flexibility, creativity, productivity.
 Should have all competencies, should choose how best to accomplish their work.
-If a 2nd scrum team is added, productivity is likely to decrease.
+If a 2nd scrum team is added, productivity is likely to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decrease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
 BEFORE : self-organizing, NOW : self-managing.</t>
-  </si>
-  <si>
-    <t>Le mot scrum est apparu en 1995, l'agilité en 2001, le 1er scrum guide en 2011, le 2ème en 2020.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">burndown chart &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
-La vélocité est une mesure de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maturité</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
-Composition des équipes de dev en fonction de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"self-organization"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Developers : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Adjustments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to its engineering practices whenever needed.
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C'est un servant leader sans pouvoir, helping developers to create value, removing impediments, coaching the developers.
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User story</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
-Méthode </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moscow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour </t>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is responsible for conducting the Daily Scrum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. NOW : Il est </t>
     </r>
     <r>
       <rPr>
@@ -1440,19 +1361,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>prioriser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> selon les points accordés aux Should et Could.
-Planning Poker : story points estimés avec la business value et la complexité de dév.
-(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
+      <t>responsable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la réussite de la scrum team, primary purpose at the daily scrum is to manage the time-box.
+Leading &amp; coaching org, working with other scrum masters, planning scrum implementations.
 </t>
     </r>
     <r>
@@ -1464,24 +1384,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Dette technique : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">non respect de la conception voulue ou non induisant des coûts supplémentaires vus comme des interêts.
-</t>
+      <t>Facilitating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and teaching scrum events, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>techniques for product backlog management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, empirical env.
+Si le PO a des soucis avec les user stories, il peut les rédiger.</t>
     </r>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Plan of work for next 24h, inspecting work since the last, forecasting upcoming sprint work.
-Developers only, 15 minutes peu importe la taille de l'équipe, debout ou pas, tous les jours, le matin, toujours au même endroit.
+Developers only, 15 minutes peu importe la taille de l'équipe, debout ou pas, tous les jours, le matin, toujours au même endroit (reduces complexity).
 BEFORE : 3 questions &gt; hier, aujourd'hui, blocages. NOW : </t>
     </r>
     <r>
@@ -1510,46 +1451,192 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sa responsabilité : la product backlog, pas le produit ni du delivery.
-Interêts : le produit, ordering items, optimizing value, keep visible &amp; transparent the work on next., les stakholder ( le PO prend le feedback de ces derniers pour évaluer la VALEUR).
-monitoring progress toward high-level </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>goals.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   He is the chief product </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>visionary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <t>Rolling wave, sans fin.
+NOT a cookbook.
+NOT a process.
+NOT a methodology.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 seul PO par projet,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">origine scrum : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empirisme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (xp) et </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pensée lean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BEFORE : dev team &gt; BA*, testeur, dev inf. NOW : developers &gt; BA, testeur, developers inf.
+BEFORE : scrum team &gt; PO, SM, dev team. NOW : scrum team &gt; developers, PO, SM.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BEFORE : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dev team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; entre 3 et 9 personnes. NOW : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scrum team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 10 personnes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximum</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1560,71 +1647,21 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KVA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : current value, ability to innovate, time-to-market (expert).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pas le problème du PO :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> coach the developers, remove impediments to the developers.
-Iterating vision every sprint, planning features, articulating the product vision (early and often).
-Releases ? C'est le PO </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>qui décide la mise en prod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>... the risk for the value, absorption by the customer, the costs and benefits, the constraints by the new release.Il peut déléguer l'écriture des user-stories aux developers mais il en est responsable.
-Il n'assigne AUCUNE tâche aux developers.</t>
-    </r>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*BA : Business Analyst.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Une user story devient increment si respect du DOD, il peut être livré (en prod ou non). 
+C'est la somme de tous les product backlog items and the value, fait par les developers, valuable when it reduces operational costs and increases customer satisfasfaction, includes regression testing. </t>
+  </si>
+  <si>
+    <t>corrigé le 03/03 à 09h</t>
   </si>
 </sst>
 </file>
@@ -2151,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2168,18 +2205,18 @@
       <c r="A1" s="12"/>
       <c r="B1" s="3"/>
       <c r="C1" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2189,13 +2226,13 @@
     </row>
     <row r="4" spans="1:3" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2208,10 +2245,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2221,13 +2258,13 @@
     </row>
     <row r="8" spans="1:3" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2237,13 +2274,13 @@
     </row>
     <row r="10" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2251,12 +2288,12 @@
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" s="5"/>
     </row>
@@ -2267,13 +2304,13 @@
     </row>
     <row r="14" spans="1:3" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2281,12 +2318,12 @@
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5"/>
     </row>
@@ -2295,12 +2332,12 @@
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -2314,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="5"/>
     </row>
@@ -2323,12 +2360,12 @@
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" ht="190.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -2339,10 +2376,10 @@
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5"/>
     </row>
@@ -2351,12 +2388,12 @@
       <c r="B25" s="3"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C26" s="5"/>
     </row>
@@ -2365,12 +2402,12 @@
       <c r="B27" s="3"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C28" s="5"/>
     </row>
@@ -2381,10 +2418,10 @@
     </row>
     <row r="30" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -2393,12 +2430,12 @@
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C32" s="5"/>
     </row>
@@ -2407,15 +2444,15 @@
       <c r="B33" s="3"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="175.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2423,15 +2460,15 @@
       <c r="B35" s="3"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" ht="182.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2439,12 +2476,12 @@
       <c r="B37" s="3"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C38" s="5"/>
     </row>
@@ -2455,7 +2492,7 @@
     </row>
     <row r="40" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>7</v>
@@ -2467,12 +2504,12 @@
       <c r="B41" s="3"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C42" s="5"/>
     </row>
@@ -2483,10 +2520,10 @@
     </row>
     <row r="44" spans="1:3" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C44" s="5"/>
     </row>

--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\Nouveau dossier\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31236D1-C8EF-4FFA-8E12-E41AADA3F782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499C4EC1-E3E7-4D4D-B443-BDFE27BDC9D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,10 +45,6 @@
     <t>Le Scrum Master</t>
   </si>
   <si>
-    <t>Cône d'incertitude,
-déviation</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">allowed : The Sprint Review. 
 Ceux qui paient pour utiliser, ceux qui utilisent le produit en développement, ceux qui paient pour développer.
@@ -81,98 +77,6 @@
   </si>
   <si>
     <t>DIVERS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Framework</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : n'est pas adaptable aux projets car chaque composant sert un objectif spécifique.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Events</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Additional meetings allowed, if </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sprint cancelled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: product backlog re-estimated under PO supervision.
-Development : pas seulement le dev logiciel mais TOUT envisager.
-No titles for developers &amp; no sub-teams, accountability belongs to the developers.
-VALEURS : Courage, openness, focus, commitment, respect.        ESSENCE : a small team flexible and adaptative.
-Scrum can be used EVERYWHERE. Scrum Master usually does care about those outside the Scrum Team.
-les 4 : role, events, artifacts, rules.          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Releases</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ? Frequently enough.</t>
-    </r>
   </si>
   <si>
     <t>the Stakeholders</t>
@@ -573,196 +477,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Responsable : PO uniquement.
-Les developers sont responsable des </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">estimations.      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Any technique should be used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>representing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> product backlog items. Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le product backlog.
-developers </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>should</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> use the same product backlog.    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ready</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint. Il peut se faire aider par le scrum master notamment.
-&gt; dynamic, never complete, existe tant que le produit existe.
-C'est </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la seule source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour tout changement du produit.     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optionnel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Management : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> responsable et </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ordonne comme il veut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">First couple sprints. Au bout du 5ème sprint, on commence à connaitre la vélocité. How much is known about the Product over time . </t>
     </r>
     <r>
@@ -914,377 +628,7 @@
     <t>Burndup/Burndown chart, KPI</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Developers (responsable du suivi du travail restant), la définition de "done" </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>créée par les developers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> peut possiblement </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s'adapter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à chaque RETRO </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>par la scrum team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, n'aide pas à calculer la vélocité.
-DONE est l'objectif, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pas la réduction de la dette technique par un sprint spécial (hardening)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-Doit respecter : conventions &amp; standards, same definition for other teams working on the same product, pas de travail supplémentaire à faire.
-ensures artifact transparency, is used to acces, guides the developers.</t>
-    </r>
-  </si>
-  <si>
     <t>Le mot scrum est apparu en 1995, l'agilité en 2001, le 1er scrum guide en 2011, le 2ème en 2020.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">burndown chart &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
-La vélocité est une mesure de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maturité</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
-Composition des équipes de dev en fonction de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"self-organization"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Developers : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Adjustments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to its engineering practices whenever needed.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User story</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
-Méthode </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moscow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prioriser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> selon les points accordés aux Should et Could.
-Planning Poker : story points estimés avec la business value et la complexité de dév.
-(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dette technique : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">non respect de la conception voulue ou non induisant des coûts supplémentaires vus comme des interêts.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sa responsabilité : la product backlog, pas le produit ni du delivery.
-Interêts : le produit, les stakholder ( le PO prend le feedback de ces derniers pour évaluer la VALEUR), ordering items, optimizing value, keep visible &amp; transparent the work on next, perform release planning.
-monitoring progress toward high-level </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>goals.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   He is the chief product </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>visionary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KVA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : current value, ability to innovate, time-to-market (expert).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pas le problème du PO :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> coach the developers, remove impediments to the developers.
-Iterating vision every sprint, planning features, articulating the product vision (early and often).
-Releases ? C'est le PO </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>qui décide la mise en prod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>... the risk for the value, absorption by the customer, the costs and benefits, the constraints by the new release.Il peut déléguer l'écriture des user-stories aux developers mais il en est responsable.
-Il n'assigne AUCUNE tâche aux developers.</t>
-    </r>
   </si>
   <si>
     <t>An estimate of the total work remains till the end of the sprint, shows the evolution of remaining effort against time. 
@@ -1457,6 +801,518 @@
 NOT a methodology.</t>
   </si>
   <si>
+    <t xml:space="preserve">Une user story devient increment si respect du DOD, il peut être livré (en prod ou non). 
+C'est la somme de tous les product backlog items and the value, fait par les developers, valuable when it reduces operational costs and increases customer satisfasfaction, includes regression testing. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sa responsabilité : la product backlog, pas le produit ni du delivery.
+Interêts : le produit, les stakholder ( le PO prend et donne le feedback de ces derniers pour évaluer la VALEUR), ordering items, optimizing value, keep visible &amp; transparent the work on next, perform release planning, estimates : business value.
+monitoring progress toward high-level </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>goals.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   He is the chief product </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : current value, ability to innovate, time-to-market (expert).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pas le problème du PO :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> coach the developers, remove impediments to the developers.
+Iterating vision every sprint, planning features, articulating the product vision (early and often).
+Releases ? C'est le PO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qui décide la mise en prod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">... the risk for the value, absorption by the customer, the costs and benefits, the constraints by the new release.Il peut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>déléguer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'écriture des user-stories aux developers mais il en est responsable.
+Il n'assigne AUCUNE tâche aux developers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cone of uncertainty,
+déviation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Framework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : n'est pas adaptable aux projets car chaque composant sert un objectif spécifique.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Events</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Additional meetings allowed, if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint cancelled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: product backlog re-estimated under PO supervision.
+Development : pas seulement le dev logiciel mais TOUT envisager.
+No titles for developers &amp; no sub-teams, accountability belongs to the developers.
+VALEURS : Courage, openness, focus, commitment, respect.        ESSENCE : a small team flexible and adaptative.
+Scrum can be used EVERYWHERE. Scrum Master usually does care about those outside the Scrum Team. SHORT ENOUGH.
+les 4 : role, events, artifacts, rules.          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Releases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ? Frequently enough.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Developers (responsable du suivi du travail restant), la définition de "done" </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>créée par les developers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> peut possiblement </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s'adapter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à chaque RETRO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>par la scrum team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, n'aide pas à calculer la vélocité. Le DOD évolue avec la maturité des developers.
+DONE est l'objectif, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pas la réduction de la dette technique par un sprint spécial (hardening)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Doit respecter : conventions &amp; standards, same definition for other teams working on the same product, pas de travail supplémentaire à faire.
+ensures artifact transparency, is used to acces, guides the developers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">burndown chart &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
+La vélocité est une mesure de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maturité</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
+Composition des équipes de dev en fonction de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"self-organization"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Developers : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adjustments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to its engineering practices whenever needed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User story</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
+Méthode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moscow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prioriser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selon les points accordés aux Should et Could.
+Planning Poker : story points estimés avec la business value et la complexité de dév.
+(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dette technique : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non respect de la conception voulue ou non induisant des coûts supplémentaires vus comme des interêts : budget spent + velocity reduced..
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Time-box </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: it can take NO MORE than.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1653,15 +1509,244 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*BA : Business Analyst.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Une user story devient increment si respect du DOD, il peut être livré (en prod ou non). 
-C'est la somme de tous les product backlog items and the value, fait par les developers, valuable when it reduces operational costs and increases customer satisfasfaction, includes regression testing. </t>
-  </si>
-  <si>
-    <t>corrigé le 03/03 à 09h</t>
+      <t>On évite pas les problèmes en agilité, on va au devant des problèmes pour les résoudre.
+*BA : Business Analyst.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Responsable : PO uniquement.
+Les items sont </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">estimés </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en fonction de la business value et des story points</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any technique should be used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>representing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> product backlog items. Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le product backlog.
+developers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use the same product backlog.    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint. Il peut se faire aider par le scrum master notamment.
+&gt; dynamic, never complete, existe tant que le produit existe.
+C'est </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la seule source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour tout changement du produit.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optionnel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances. Le 1er sprint peut </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commencer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> même si le product backlog n'est pas complet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Management : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> responsable et </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ordonne comme il veut selon SES critères</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>corrigé le 03/03 10h44</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2290,7 @@
       <c r="A1" s="12"/>
       <c r="B1" s="3"/>
       <c r="C1" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2216,7 +2301,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2226,13 +2311,13 @@
     </row>
     <row r="4" spans="1:3" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2242,13 +2327,13 @@
     </row>
     <row r="6" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2258,13 +2343,13 @@
     </row>
     <row r="8" spans="1:3" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2274,13 +2359,13 @@
     </row>
     <row r="10" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2290,10 +2375,10 @@
     </row>
     <row r="12" spans="1:3" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5"/>
     </row>
@@ -2304,13 +2389,13 @@
     </row>
     <row r="14" spans="1:3" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2320,10 +2405,10 @@
     </row>
     <row r="16" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5"/>
     </row>
@@ -2334,10 +2419,10 @@
     </row>
     <row r="18" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -2351,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5"/>
     </row>
@@ -2360,12 +2445,12 @@
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="166.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -2376,10 +2461,10 @@
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5"/>
     </row>
@@ -2390,10 +2475,10 @@
     </row>
     <row r="26" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C26" s="5"/>
     </row>
@@ -2404,10 +2489,10 @@
     </row>
     <row r="28" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C28" s="5"/>
     </row>
@@ -2418,10 +2503,10 @@
     </row>
     <row r="30" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -2435,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C32" s="5"/>
     </row>
@@ -2449,10 +2534,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2460,15 +2545,15 @@
       <c r="B35" s="3"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="217.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2481,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C38" s="5"/>
     </row>
@@ -2492,10 +2577,10 @@
     </row>
     <row r="40" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="5"/>
     </row>
@@ -2506,10 +2591,10 @@
     </row>
     <row r="42" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C42" s="5"/>
     </row>
@@ -2518,12 +2603,12 @@
       <c r="B43" s="3"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C44" s="5"/>
     </row>

--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\Nouveau dossier\prepa_certif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499C4EC1-E3E7-4D4D-B443-BDFE27BDC9D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EA2E29-E500-45AE-BF76-8C8A62A9A498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="624" windowWidth="14868" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1132,6 +1132,439 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 seul PO par projet,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">origine scrum : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empirisme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (xp) et </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pensée lean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BEFORE : dev team &gt; BA*, testeur, dev inf. NOW : developers &gt; BA, testeur, developers inf.
+BEFORE : scrum team &gt; PO, SM, dev team. NOW : scrum team &gt; developers, PO, SM.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BEFORE : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dev team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; entre 3 et 9 personnes. NOW : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scrum team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 10 personnes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximum</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On évite pas les problèmes en agilité, on va au devant des problèmes pour les résoudre.
+*BA : Business Analyst.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Responsable : PO uniquement.
+Les items sont </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">estimés </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en fonction de la business value et des story points</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any technique should be used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>representing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> product backlog items. Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le product backlog.
+developers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use the same product backlog.    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint. Il peut se faire aider par le scrum master notamment.
+&gt; dynamic, never complete, existe tant que le produit existe.
+C'est </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la seule source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour tout changement du produit.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optionnel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances. Le 1er sprint peut </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commencer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> même si le product backlog n'est pas complet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Management : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> responsable et </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ordonne comme il veut selon SES critères</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">burndown chart &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
 La vélocité est une mesure de la </t>
     </r>
@@ -1309,78 +1742,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: it can take NO MORE than.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1 seul PO par projet,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">origine scrum : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>empirisme</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (xp) et </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pensée lean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve">: it can take NO MORE than.
+Customer feedback : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validated learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1388,365 +1766,9 @@
       </rPr>
       <t>.</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BEFORE : dev team &gt; BA*, testeur, dev inf. NOW : developers &gt; BA, testeur, developers inf.
-BEFORE : scrum team &gt; PO, SM, dev team. NOW : scrum team &gt; developers, PO, SM.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">BEFORE : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dev team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; entre 3 et 9 personnes. NOW : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scrum team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; 10 personnes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maximum</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>On évite pas les problèmes en agilité, on va au devant des problèmes pour les résoudre.
-*BA : Business Analyst.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Responsable : PO uniquement.
-Les items sont </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">estimés </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>en fonction de la business value et des story points</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Any technique should be used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>representing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> product backlog items. Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le product backlog.
-developers </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>should</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> use the same product backlog.    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ready</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint. Il peut se faire aider par le scrum master notamment.
-&gt; dynamic, never complete, existe tant que le produit existe.
-C'est </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la seule source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour tout changement du produit.     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optionnel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances. Le 1er sprint peut </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commencer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> même si le product backlog n'est pas complet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Management : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> responsable et </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ordonne comme il veut selon SES critères</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>corrigé le 03/03 10h44</t>
+  </si>
+  <si>
+    <t>corrigé le 05/03 12h30</t>
   </si>
 </sst>
 </file>
@@ -2298,7 +2320,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -2450,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -2603,12 +2625,12 @@
       <c r="B43" s="3"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="181.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" s="5"/>
     </row>

--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EA2E29-E500-45AE-BF76-8C8A62A9A498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA1BF39-710C-4B29-ABCF-09FD54796E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="624" windowWidth="14868" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,81 +300,6 @@
 DOD</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">8h max pour 1 mois et si moins alors "less",  responsable: scrum team, pas la place des stakeholders mais ils peuvent y assister.
-Participants : la scrum team (scrum master, product owner, developers). Others possible to provide </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">technical advice </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">TOUT LE MONDE PEUT Y ASSISTER.
-Comment le travail sera fait pour le prochain increment ? (work needed to deliver)
-Qu'est-ce qui sera livré? (delivered in the Increment resulting).
-Le BA rédige les user stories.
-NEW : Les questions sur le choix des user stories : why (sprint goal), what (product backlog items), how (tasks). 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">input </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: last sprint, product backlog, past performance, last increment.
-L'important est la plannification </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>des premiers jours</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Les developers se défendent avec la vélocité (Business Value pour le client, Story Points pour la scrum team).</t>
-    </r>
-  </si>
-  <si>
     <t>4 heures max pour 1 mois et si moins alors "less", but : présenter le produit (travail réalisé) durant le sprint en cours OU "a revisited product backlog", inspecter le résultat. 
 C'est pour les stakeholders, scrum master, developers, PO, TOUT LE MONDE PEUT Y ASSISTER.   It's not JUST a demo et possible de ne rien livrer.</t>
   </si>
@@ -629,14 +554,6 @@
   </si>
   <si>
     <t>Le mot scrum est apparu en 1995, l'agilité en 2001, le 1er scrum guide en 2011, le 2ème en 2020.</t>
-  </si>
-  <si>
-    <t>An estimate of the total work remains till the end of the sprint, shows the evolution of remaining effort against time. 
-NEW : KPI &gt; cumulative flow diagram : reduire la colonne "en cours".
-NEW : KPI &gt; vélocité :  des story points (mesure sur 5 sprints), pour savoir nbre pts/sprint.
-UP : Outil non précis et ne prévoit pas.
-DOWN : analyse de tendance et prévision.
-Responsable : developers.</t>
   </si>
   <si>
     <r>
@@ -948,6 +865,98 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Developers (responsable du suivi du travail restant), la définition de "done" </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>créée par les developers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> peut possiblement </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s'adapter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à chaque RETRO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>par la scrum team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, n'aide pas à calculer la vélocité. Le DOD évolue avec la maturité des developers.
+DONE est l'objectif, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pas la réduction de la dette technique par un sprint spécial (hardening)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Doit respecter : conventions &amp; standards, same definition for other teams working on the same product, pas de travail supplémentaire à faire.
+ensures artifact transparency, is used to acces, guides the developers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -956,6 +965,742 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>1 seul PO par projet,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">origine scrum : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empirisme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (xp) et </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pensée lean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BEFORE : dev team &gt; BA*, testeur, dev inf. NOW : developers &gt; BA, testeur, developers inf.
+BEFORE : scrum team &gt; PO, SM, dev team. NOW : scrum team &gt; developers, PO, SM.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BEFORE : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dev team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; entre 3 et 9 personnes. NOW : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scrum team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 10 personnes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximum</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On évite pas les problèmes en agilité, on va au devant des problèmes pour les résoudre.
+*BA : Business Analyst.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Responsable : PO uniquement.
+Les items sont </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">estimés </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en fonction de la business value et des story points</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any technique should be used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>representing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> product backlog items. Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le product backlog.
+developers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use the same product backlog.    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint. Il peut se faire aider par le scrum master notamment.
+&gt; dynamic, never complete, existe tant que le produit existe.
+C'est </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la seule source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour tout changement du produit.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optionnel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances. Le 1er sprint peut </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commencer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> même si le product backlog n'est pas complet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Management : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> responsable et </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ordonne comme il veut selon SES critères</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">burndown chart &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
+La vélocité est une mesure de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maturité</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
+Composition des équipes de dev en fonction de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"self-organization"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Developers : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adjustments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to its engineering practices whenever needed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User story</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
+Méthode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moscow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prioriser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selon les points accordés aux Should et Could.
+Planning Poker : story points estimés avec la business value et la complexité de dév.
+(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dette technique : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non respect de la conception voulue ou non induisant des coûts supplémentaires vus comme des interêts : budget spent + velocity reduced..
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Time-box </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: it can take NO MORE than.
+Customer feedback : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validated learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>corrigé le 05/03 12h30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8h max pour 1 mois et si moins alors "less",  responsable: scrum team, pas la place des stakeholders mais ils peuvent y assister.
+Participants : la scrum team (scrum master, product owner, developers). Others possible to provide </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">technical advice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TOUT LE MONDE PEUT Y ASSISTER.
+Comment le travail sera fait pour le prochain increment ? (work needed to deliver)
+Qu'est-ce qui sera livré? (delivered in the Increment resulting).
+Le BA rédige les user stories.
+NEW : Les questions sur le choix des user stories : why (sprint goal), what (product backlog items), how (tasks). </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No mandatory prerequisites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">input </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: last sprint, product backlog, past performance, last increment.
+L'important est la plannification </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>des premiers jours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Les developers se défendent avec la vélocité (Business Value pour le client, Story Points pour la scrum team).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Framework</t>
     </r>
     <r>
@@ -966,7 +1711,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : n'est pas adaptable aux projets car chaque composant sert un objectif spécifique.
+      <t xml:space="preserve"> : n'est pas adaptable aux projets car chaque composant sert un objectif spécifique, container for other techniques and methodologies.
 </t>
     </r>
     <r>
@@ -1039,736 +1784,12 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Developers (responsable du suivi du travail restant), la définition de "done" </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>créée par les developers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> peut possiblement </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s'adapter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à chaque RETRO </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>par la scrum team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, n'aide pas à calculer la vélocité. Le DOD évolue avec la maturité des developers.
-DONE est l'objectif, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pas la réduction de la dette technique par un sprint spécial (hardening)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-Doit respecter : conventions &amp; standards, same definition for other teams working on the same product, pas de travail supplémentaire à faire.
-ensures artifact transparency, is used to acces, guides the developers.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1 seul PO par projet,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">origine scrum : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>empirisme</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (xp) et </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pensée lean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BEFORE : dev team &gt; BA*, testeur, dev inf. NOW : developers &gt; BA, testeur, developers inf.
-BEFORE : scrum team &gt; PO, SM, dev team. NOW : scrum team &gt; developers, PO, SM.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">BEFORE : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dev team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; entre 3 et 9 personnes. NOW : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scrum team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; 10 personnes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maximum</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>On évite pas les problèmes en agilité, on va au devant des problèmes pour les résoudre.
-*BA : Business Analyst.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Responsable : PO uniquement.
-Les items sont </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">estimés </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>en fonction de la business value et des story points</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Any technique should be used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>representing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> product backlog items. Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le product backlog.
-developers </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>should</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> use the same product backlog.    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ready</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint. Il peut se faire aider par le scrum master notamment.
-&gt; dynamic, never complete, existe tant que le produit existe.
-C'est </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la seule source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour tout changement du produit.     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optionnel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances. Le 1er sprint peut </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commencer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> même si le product backlog n'est pas complet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Management : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> responsable et </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ordonne comme il veut selon SES critères</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">burndown chart &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
-La vélocité est une mesure de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maturité</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
-Composition des équipes de dev en fonction de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"self-organization"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Developers : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Adjustments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to its engineering practices whenever needed.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User story</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
-Méthode </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moscow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prioriser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> selon les points accordés aux Should et Could.
-Planning Poker : story points estimés avec la business value et la complexité de dév.
-(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dette technique : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">non respect de la conception voulue ou non induisant des coûts supplémentaires vus comme des interêts : budget spent + velocity reduced..
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Time-box </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: it can take NO MORE than.
-Customer feedback : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>validated learning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>corrigé le 05/03 12h30</t>
+    <t>An estimate of the total work remains till the end of the sprint, shows the evolution of remaining effort against time. This is a good practice, not mandatory in the scrum guide.
+NEW : KPI &gt; cumulative flow diagram : reduire la colonne "en cours".
+NEW : KPI &gt; vélocité :  des story points (mesure sur 5 sprints), pour savoir nbre pts/sprint.
+UP : Outil non précis et ne prévoit pas.
+DOWN : analyse de tendance et prévision.
+Responsable : developers.</t>
   </si>
 </sst>
 </file>
@@ -2295,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2317,10 +2338,10 @@
     </row>
     <row r="2" spans="1:3" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -2333,10 +2354,10 @@
     </row>
     <row r="4" spans="1:3" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>20</v>
@@ -2349,10 +2370,10 @@
     </row>
     <row r="6" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
@@ -2371,7 +2392,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2384,7 +2405,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>16</v>
@@ -2400,7 +2421,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5"/>
     </row>
@@ -2417,7 +2438,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2430,7 +2451,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5"/>
     </row>
@@ -2444,7 +2465,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -2458,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="5"/>
     </row>
@@ -2472,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -2500,7 +2521,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" s="5"/>
     </row>
@@ -2511,10 +2532,10 @@
     </row>
     <row r="28" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5"/>
     </row>
@@ -2525,10 +2546,10 @@
     </row>
     <row r="30" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -2542,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="5"/>
     </row>
@@ -2556,10 +2577,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2572,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>10</v>
@@ -2588,7 +2609,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5"/>
     </row>
@@ -2630,7 +2651,7 @@
         <v>8</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C44" s="5"/>
     </row>

--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA1BF39-710C-4B29-ABCF-09FD54796E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F167F1-4D1E-4BD4-AE43-C62DD7F4FB76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1593,9 +1593,6 @@
     </r>
   </si>
   <si>
-    <t>corrigé le 05/03 12h30</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">8h max pour 1 mois et si moins alors "less",  responsable: scrum team, pas la place des stakeholders mais ils peuvent y assister.
 Participants : la scrum team (scrum master, product owner, developers). Others possible to provide </t>
@@ -1790,6 +1787,9 @@
 UP : Outil non précis et ne prévoit pas.
 DOWN : analyse de tendance et prévision.
 Responsable : developers.</t>
+  </si>
+  <si>
+    <t>corrigé le 06/03 16h54</t>
   </si>
 </sst>
 </file>
@@ -2316,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="2" spans="1:3" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>45</v>
@@ -2357,7 +2357,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>20</v>
@@ -2405,7 +2405,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>16</v>
@@ -2577,7 +2577,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>40</v>

--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4652DB-5879-4C5C-9E9B-4B4D080FF0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4B614D-4915-4D79-B8F9-0A8F7E202299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2034,7 +2034,8 @@
     </r>
   </si>
   <si>
-    <t>corrigé le 06/03 21h50</t>
+    <t>corrigé le 06/03 21h53
+rôle de testeur en attente de vérification</t>
   </si>
 </sst>
 </file>

--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4B614D-4915-4D79-B8F9-0A8F7E202299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B976EAD6-6BDC-4369-8AA1-255D44DBA3C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,19 +86,7 @@
 si "developers" : nouvelle.</t>
   </si>
   <si>
-    <t>Sprint Review
-(événement scrum)</t>
-  </si>
-  <si>
-    <t>Sprint rétrospective
-(événement scrum)</t>
-  </si>
-  <si>
     <t>Sprint planning
-(événement scrum)</t>
-  </si>
-  <si>
-    <t>Daily Scrum
 (événement scrum)</t>
   </si>
   <si>
@@ -160,253 +148,14 @@
     <t>collaboration avec PMI-PMI qui impose d'être moins prescriptif mais plus descriptif d'où les changements dans le scrum guide 2020.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">First couple sprints. Au bout du 5ème sprint, on commence à connaitre la vélocité. How much is known about the Product over time . </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SI déviation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt;&gt;&gt; correction "as soon as possible".</t>
-    </r>
-  </si>
-  <si>
     <t>Increment</t>
   </si>
   <si>
-    <t>Burndup/Burndown chart, KPI</t>
-  </si>
-  <si>
     <t>Le mot scrum est apparu en 1995, l'agilité en 2001, le 1er scrum guide en 2011, le 2ème en 2020.</t>
-  </si>
-  <si>
-    <t>Rolling wave, sans fin.
-NOT a cookbook.
-NOT a process.
-NOT a methodology.</t>
   </si>
   <si>
     <t>Cone of uncertainty,
 déviation</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">burndown chart &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
-La vélocité est une mesure de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maturité</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
-Composition des équipes de dev en fonction de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"self-organization"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Developers : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Adjustments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to its engineering practices whenever needed.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User story</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
-Méthode </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moscow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prioriser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> selon les points accordés aux Should et Could.
-Planning Poker : story points estimés avec la business value et la complexité de dév.
-(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dette technique : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">non respect de la conception voulue ou non induisant des coûts supplémentaires vus comme des interêts : budget spent + velocity reduced..
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Time-box </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: it can take NO MORE than.
-Customer feedback : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>validated learning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>An estimate of the total work remains till the end of the sprint, shows the evolution of remaining effort against time. This is a good practice, not mandatory in the scrum guide.
@@ -417,309 +166,12 @@
 Responsable : developers.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Developers (responsable du suivi du travail restant), la définition de "done" </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>créée par les developers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> peut possiblement </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s'adapter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à chaque RETRO </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>par la scrum team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, n'aide pas à calculer la vélocité. Le DOD évolue avec la maturité des developers.
-DONE est l'objectif, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pas la réduction de la dette technique par un sprint spécial (hardening)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-Doit respecter : conventions &amp; standards, same definition for other teams working on the same product. Increase transparency, create a shared understanding of when work is complete, ensures artifact transparency, is used to acces, guides the developers.</t>
-    </r>
-  </si>
-  <si>
     <t>Product backlog
 ( PB )</t>
   </si>
   <si>
     <t xml:space="preserve">Une user story devient increment si respect du DOD, il peut être livré (en prod ou non). 
 C'est la somme de tous les PB items and the value, fait par les developers, valuable when it reduces operational costs and increases customer satisfasfaction, includes regression testing. </t>
-  </si>
-  <si>
-    <t>4 heures max pour 1 mois et si moins alors "less", but : présenter le produit (travail réalisé) durant le sprint en cours OU "a revisited PB", inspecter le résultat. 
-C'est pour les stakeholders, scrum master, developers, PO, TOUT LE MONDE PEUT Y ASSISTER.   It's not JUST a demo et possible de ne rien livrer.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1 seul PO par projet,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">origine scrum : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>empirisme</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (xp) et </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pensée lean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BEFORE : dev team &gt; BA*, testeur, dev inf. NOW : developers &gt; BA, testeur, developers inf.
-BEFORE : scrum team &gt; PO, SM, dev team. NOW : scrum team &gt; developers, PO, SM.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">BEFORE : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dev team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; entre 3 et 9 personnes. NOW : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scrum team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; 10 personnes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maximum</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>On évite pas les problèmes en agilité, on va au devant des problèmes pour les résoudre.
-Multiple scrum teams, same DOD.
-*BA : Business Analyst.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -772,156 +224,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Sa responsabilité : la PB, pas le produit ni du delivery.
-Interêts : le produit, les stakholder ( le PO prend et donne le feedback de ces derniers pour évaluer la VALEUR), ordering items, optimizing value, keep visible &amp; transparent the work on next, perform release planning, estimates : business value.
-monitoring progress toward high-level </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>goals.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   He is the chief product </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>visionary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KVA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : current value, ability to innovate, time-to-market (expert).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pas le problème du PO :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> coach the developers, remove impediments to the developers.
-Iterating vision every sprint, planning features, articulating the product vision (early and often).
-Releases ? C'est le PO </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>qui décide la mise en prod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">... the risk for the value, absorption by the customer, the costs and benefits, the constraints by the new release.Il peut </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>déléguer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'écriture des user-stories aux developers mais il en est responsable.
-Il n'assigne AUCUNE tâche aux developers.
-If not available for the developers, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>discuss the matter with the scrum master.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">3 heures max, cérémonie scrum en fermeture du sprint qui se réalise juste après la sprint Review. </t>
     </r>
     <r>
@@ -1051,350 +353,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> possible, include at least 1 high priority process for the next.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Responsable : PO uniquement.
-Les items sont </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">estimés </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>en fonction de la business value et des story points (developers in collaboration with the PO)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Any technique should be used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>representing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PB items. 
-Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le PB.
-Developers </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>should</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> use the same PB.    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ready</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint. Il peut se faire aider par le scrum master notamment.
-&gt;&gt;&gt; dynamic, never complete, existe tant que le produit existe.
-C'est </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la seule source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour tout changement du produit.     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optionnel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances. Le 1er sprint peut </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commencer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> même si le PB n'est pas complet. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Management : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> responsable et </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ordonne comme il veut selon SES critères </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(whatever is deemed most appropriateby the PO).
-Items of the PB larger than the items in the sprint backlog.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Servant leader sans pouvoir</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, helping developers to create value, removing impediments, coaching the developers, champion scrum, by facilitating developer decision-making.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Is responsible for conducting the Daily Scrum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. NOW : Il est </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>responsable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de la réussite de la scrum team, primary purpose at the daily scrum is to manage the time-box.
-Leading &amp; coaching org, working with other scrum masters, planning scrum implementations.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Facilitating</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and teaching scrum events, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>techniques for PB management</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, empirical env. 
-IS A MANAGEMENT POSITION, shielding from interruptions.
-Si le PO a des soucis avec les user stories, il peut les rédiger.</t>
     </r>
   </si>
   <si>
@@ -1562,7 +520,727 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">8h max pour 1 mois et si moins alors "less",  responsable: scrum team, pas la place des stakeholders mais ils peuvent y assister.
+      <t xml:space="preserve">Scrum master, product owner, developers.  
+Différentes équipes scrum d'un même produit peuvent NE PAS avoir des sprints de longueur différente (does not require) et ne pas avoir de sprint "alignés".
+Elle fait le SPRINT PLANNING, responsible for crafting the sprint goal during it. Elle doit être autosuffisante. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Increased creativity, commitment and feeling of accountability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Qualités importantes : flexibility, creativity, productivity.
+Should have all competencies, should choose how best to accomplish their work.
+If a 2nd scrum team is added, productivity is likely to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decrease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+BEFORE : self-organizing, NOW : self-managing, collaborates and supports its team members.</t>
+    </r>
+  </si>
+  <si>
+    <t>Burnup/Burndown chart, KPI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Developers (responsable du suivi du travail restant), la définition de "done" </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>créée par les developers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> peut possiblement </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s'adapter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à chaque RETRO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>par la scrum team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, n'aide pas à calculer la vélocité. Le DOD évolue avec la maturité des developers.
+DONE est l'objectif, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pas la réduction de la dette technique par un sprint spécial (hardening), pas de non-functional requirements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Doit respecter : conventions &amp; standards, same definition for other teams working on the same product. Increase transparency, create a shared understanding of when work is complete, ensures artifact transparency, is used to acces, guides the developers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Servant leader in service of the organization, the PO and the developers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, helping developers to create value, removing impediments, coaching the developers, champion scrum, by facilitating developer decision-making.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is responsible for conducting the Daily Scrum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. NOW : Il est </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>responsable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la réussite de la scrum team, primary purpose at the daily scrum is to manage the time-box.
+Leading &amp; coaching org, working with other scrum masters, planning scrum implementations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Facilitating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and teaching scrum events, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>techniques for PB management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, empirical env. 
+IS A MANAGEMENT POSITION, shielding from interruptions.
+Si le PO a des soucis avec les user stories, il peut les rédiger.</t>
+    </r>
+  </si>
+  <si>
+    <t>4 heures max pour 1 mois et si moins alors "less", but : présenter le produit (travail réalisé) durant le sprint en cours OU "a revisited PB", inspecter le résultat. 
+TOUT LE MONDE PEUT Y ASSISTER.   It's not JUST a demo et possible de ne rien livrer.
+Review the output of the sprint and decide what to do next.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sa responsabilité : la PB, pas le produit ni du delivery.
+Interêts : le produit, les stakholder ( le PO prend et donne le feedback de ces derniers pour évaluer la VALEUR), ordering items, optimizing value, keep visible &amp; transparent the work on next, perform release planning, perform user acceptance, estimates : business value.
+monitoring progress toward high-level </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>goals.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   He is the chief product </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : current value, ability to innovate, time-to-market (expert).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pas le problème du PO :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> coach the developers, remove impediments to the developers.
+Iterating vision every sprint, planning features, articulating the product vision (early and often).
+Releases ? C'est le PO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qui décide la mise en prod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">... the risk for the value, absorption by the customer, the costs and benefits, the constraints by the new release.Il peut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>déléguer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'écriture des user-stories aux developers mais il en est responsable.
+Il n'assigne AUCUNE tâche aux developers.
+If not available for the developers, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>discuss the matter with the scrum master.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">burndown chart &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
+La vélocité est une mesure de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maturité</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
+Composition des équipes de dev en fonction de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"self-organization"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Developers : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adjustments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to its engineering practices whenever needed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User story</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
+Méthode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moscow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prioriser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selon les points accordés aux Should et Could.
+Planning Poker : story points estimés avec la business value et la complexité de dév.
+(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dette technique : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non respect de la conception voulue ou non induisant des coûts supplémentaires vus comme des interêts : budget spent + velocity reduced..
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Time-box </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: it can take NO MORE than.
+Customer feedback : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validated learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Incremental delivery :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> release working software, additional features in a useable state.</t>
+    </r>
+  </si>
+  <si>
+    <t>Daily Scrum
+(événement scrum)
+(feedback loop)</t>
+  </si>
+  <si>
+    <t>Sprint Review
+(événement scrum)
+(feedback loop)</t>
+  </si>
+  <si>
+    <t>Sprint rétrospective
+(événement scrum)
+(feedback loop)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rolling wave, sans fin.
+NOT a cookbook.
+NOT a process.
+NOT a methodology.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agile manifesto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+comprehensive documentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La user story est claire, précise et comprise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Pour la scrum team, le PO peut y assister. Se fait n'importe quand. Ready if it can be done in 1 sprint. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There is no acceptance criteria.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8h max pour 1 mois et si moins alors "less",  responsable: scrum team, pas la place des stakeholders mais ils peuvent y assister. WHAT CAN BE DONE AND HOW TO DO IT.
 Participants : la scrum team (scrum master, product owner, developers). Others possible to provide </t>
     </r>
     <r>
@@ -1679,59 +1357,711 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Scrum master, product owner, developers.  
-Différentes équipes scrum d'un même produit peuvent NE PAS avoir des sprints de longueur différente (does not require) et ne pas avoir de sprint "alignés".
-Elle fait le SPRINT PLANNING, responsible for crafting the sprint goal during it. Elle doit être autosuffisante. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Increased creativity, commitment and feeling of accountability</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANYONE CAN ATTEND, ONLY THE DEVELOPERS PARTICIPATE.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Plan of work for next 24h, inspecting work since the last, forecasting upcoming sprint work.
+15 minutes (OR LESS IN DURATION), peu importe la taille de l'équipe, debout ou pas, tous les jours, le matin, toujours au même endroit (reduces complexity).
+BEFORE : 3 questions &gt; hier, aujourd'hui, blocages. NOW : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">questions ou discussion, tout est possible </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(no specific format). Team members synchronize their work and progress.</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le scrum master ne la "conduit" pas.
+3 questions du scrum master : je vois les obstacles qui empêchent d'aller au but, j'ai vu hier ce qui peut aider les developers, je peux les aider aujourd'hui à atteindre ce but. 
+--NO CANCELLATION ALLOWED--</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 seul PO par projet,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">origine scrum : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empirisme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (xp) et </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pensée lean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BEFORE : dev team &gt; BA*, testeur, dev inf. NOW : developers &gt; BA, developers inf.
+BEFORE : scrum team &gt; PO, SM, dev team. NOW : scrum team &gt; developers, PO, SM.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BEFORE : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dev team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; entre 3 et 9 personnes. NOW : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scrum team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 10 personnes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximum</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">.
-Qualités importantes : flexibility, creativity, productivity.
-Should have all competencies, should choose how best to accomplish their work.
-If a 2nd scrum team is added, productivity is likely to </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>decrease</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-BEFORE : self-organizing, NOW : self-managing, collaborates and supports its team members.</t>
-    </r>
-  </si>
-  <si>
-    <t>La user story est claire, précise et comprise. Pour la scrum team, le PO peut y assister. Se fait n'importe quand. Ready if it can be done in 1 sprint.</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scrum has no tester role, everyone in the scrum team is responsible for quality.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On évite pas les problèmes en agilité, on va au devant des problèmes pour les résoudre.
+Multiple scrum teams, same PB, same DOD.
+*BA : Business Analyst.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Responsable : PO uniquement. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The entire team owns the items.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estimates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the developers after clarifying requirements with th PO.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any technique should be used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>representing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PB items. "owner" is NOT an attribute of the PB.
+Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le PB.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint. Il peut se faire aider par le scrum master notamment.
+&gt;&gt;&gt; dynamic, never complete, existe tant que le produit existe.
+C'est </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la seule source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour tout changement du produit.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optionnel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances. Le 1er sprint peut </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commencer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> même si le PB n'est pas complet. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Management : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> responsable et </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ordonne comme il veut selon SES critères </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(whatever is deemed most appropriateby the PO). It is allowed to grow and change.
+Items of the PB larger than the items in the sprint backlog.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The PB items selected for this sprint + the plan for delivering them, it is the developer's plan.    NEW : Les questions sur le choix des user stories : why (sprint goal), what (PB items), how (tasks). (contains use case, tasks or user stories). </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The entire team owns the sprint backlog.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A prioritized list of tasks to be completed during the project.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>changes during sprint:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>developers ONLY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (belongs solely, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>possible to add new work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).
+Utiliser la fin du dernier sprint pour plannifier </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>les premiers jours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> du nouveau sprint.
+La modification / rééstimations des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user stories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> est préférable à l'annulation d'un sprint.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First couple of sprints.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Au bout du 5ème sprint, on commence à connaitre la vélocité. How much is known about the Product over time . </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SI déviation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;&gt;&gt; correction "as soon as possible".</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1747,24 +2077,35 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : PO only (OR </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if sprint goal obsolete or cannot be met</t>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or finish :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PO only (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if sprint goal obsolete or cannot be met)</t>
     </r>
     <r>
       <rPr>
@@ -1819,7 +2160,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> en fonction : de la possibilité d'être en réunion avec les stakeholders et des "done" pouvant être faits + fréquemment.
-La qualité ne doit pas baisser, l'objectif ne doit pas être mis en danger, scope may be clarified and re-negociated.
+La qualité ne doit pas baisser, l'objectif ne doit pas être mis en danger, scope may be clarified and re-negociated. Les sprints ont tous la même taille.
 Le sprint est le SEUL moment dans lequel </t>
     </r>
     <r>
@@ -1868,174 +2209,8 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Plan of work for next 24h, inspecting work since the last, forecasting upcoming sprint work.
-Developers only, 15 minutes (OR LESS IN DURATION), peu importe la taille de l'équipe, debout ou pas, tous les jours, le matin, toujours au même endroit (reduces complexity).
-BEFORE : 3 questions &gt; hier, aujourd'hui, blocages. NOW : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">questions ou discussion, tout est possible </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(no specific format). Team members synchronize their work and progress.</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Le scrum master ne la "conduit" pas.
-3 questions du scrum master : je vois les obstacles qui empêchent d'aller au but, j'ai vu hier ce qui peut aider les developers, je peux les aider aujourd'hui à atteindre ce but. 
---NO CANCELLATION ALLOWED--</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The PB items selected for this sprint + the plan for delivering them, it is the developer's plan.    NEW : Les questions sur le choix des user stories : why (sprint goal), what (PB items), how (tasks). (contains use case, tasks or user stories).
-A prioritized list of tasks to be completed during the project.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>changes during sprint:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>developers ONLY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (belongs solely, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>possible to add new work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).
-Utiliser la fin du dernier sprint pour plannifier </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>les premiers jours</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> du nouveau sprint.
-La modification / rééstimations des </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>user stories</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> est préférable à l'annulation d'un sprint.</t>
-    </r>
-  </si>
-  <si>
-    <t>corrigé le 06/03 21h53
-rôle de testeur en attente de vérification</t>
+    <t>corrigé le 07/03 14h40
+attention : testeur &gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -2222,7 +2397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2274,6 +2449,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2582,12 +2763,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -2600,13 +2781,13 @@
     </row>
     <row r="4" spans="1:3" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2614,12 +2795,12 @@
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -2632,13 +2813,13 @@
     </row>
     <row r="8" spans="1:3" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2648,13 +2829,13 @@
     </row>
     <row r="10" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2662,12 +2843,12 @@
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" s="5"/>
     </row>
@@ -2678,13 +2859,13 @@
     </row>
     <row r="14" spans="1:3" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2694,7 +2875,7 @@
     </row>
     <row r="16" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>36</v>
@@ -2708,24 +2889,24 @@
     </row>
     <row r="18" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="19" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" ht="183" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5"/>
     </row>
@@ -2734,12 +2915,12 @@
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" ht="183" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -2750,10 +2931,10 @@
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5"/>
     </row>
@@ -2764,10 +2945,10 @@
     </row>
     <row r="26" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="5"/>
     </row>
@@ -2778,10 +2959,10 @@
     </row>
     <row r="28" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C28" s="5"/>
     </row>
@@ -2792,10 +2973,10 @@
     </row>
     <row r="30" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -2809,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C32" s="5"/>
     </row>
@@ -2823,10 +3004,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2839,7 +3020,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>9</v>
@@ -2855,7 +3036,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C38" s="5"/>
     </row>
@@ -2880,10 +3061,10 @@
     </row>
     <row r="42" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C42" s="5"/>
     </row>
@@ -2892,12 +3073,12 @@
       <c r="B43" s="3"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3" ht="181.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="193.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C44" s="5"/>
     </row>

--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786F7160-7B34-41B5-A0C4-BD6999A4671C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4B842D-C0E7-4073-8434-54627F547BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,34 +135,6 @@
 C'est la somme de tous les PB items and the value, fait par les developers, valuable when it reduces operational costs and increases customer satisfasfaction, includes regression testing. </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Le PO, developers. BEFORE : "consume not more than 10% of the capacity of the developers"    NOW : capacité ou durée à l'appréciation.
-Not for the current sprint in progress, during the sprint in preparation for the next sprint(s).
-Ongoing process, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>act of adding detail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>Burnup/Burndown chart, KPI</t>
   </si>
   <si>
@@ -276,11 +248,6 @@
 IS A MANAGEMENT POSITION, shielding from interruptions.
 Si le PO a des soucis avec les user stories, il peut les rédiger.</t>
     </r>
-  </si>
-  <si>
-    <t>4 heures max pour 1 mois et si moins alors "less", but : présenter le produit (travail réalisé) durant le sprint en cours OU "a revisited PB", inspecter le résultat. 
-TOUT LE MONDE PEUT Y ASSISTER.   It's not JUST a demo et possible de ne rien livrer.
-Review the output of the sprint and decide what to do next.</t>
   </si>
   <si>
     <t>Daily Scrum
@@ -450,141 +417,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">The PB items selected for this sprint + the plan for delivering them, it is the developer's plan.    NEW : Les questions sur le choix des user stories : why (sprint goal), what (PB items), how (tasks). (contains use case, tasks or user stories). </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The entire team owns the sprint backlog.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-A prioritized list of tasks to be completed during the project.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>changes during sprint:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>developers ONLY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (belongs solely, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>possible to add new work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).
-Utiliser la fin du dernier sprint pour plannifier </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>les premiers jours</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> du nouveau sprint.
-La modification / rééstimations des </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>user stories</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> est préférable à l'annulation d'un sprint.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1264,209 +1096,6 @@
       </rPr>
       <t>.
 Doit respecter : conventions &amp; standards, same definition for other teams working on the same product. Increase transparency, create a shared understanding of when work is complete, ensures artifact transparency, is used to acces, guides the developers.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>il y en a 3 :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PB (product goal), sprint backlog (sprint goal), increment (DOD).   
-Inspect frequently, but it should not get in the way of the work.   Sprint goal provides guidance.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PILARS : TIA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt; transparency (responsable scrum master), adaptation, inspection.
-Awareness of the artifacts : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>transparency (understandable by all stakeholders)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Si retard dû à un élément manquant, être sûr d'avoir des tâches à faire pour le prochain sprint en attendant.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3 heures max, cérémonie scrum en fermeture du sprint, juste après la sprint Review.          </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C'est pour la scrum team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Moment of : Lessons learned.
-( pour les processus) Sert à </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>améliorer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour les prochains sprints, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>identifier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ce qui a été bien, intend to promote continous process, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>analyser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ce qui s'est passé &gt;&gt; &gt;&gt;&gt; people, relationships, process, and tool. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Most appropriate moment to change the DOD.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-if </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>improvement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> possible, include at least 1 high priority process for the next.</t>
     </r>
   </si>
   <si>
@@ -1521,238 +1150,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Responsable : PO uniquement. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The entire team owns the items.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Estimates</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : the developers after clarifying requirements with th PO.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Any technique should be used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>representing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PB items. "owner" is NOT an attribute of the PB.
-Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le PB.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ready</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint. Il peut se faire aider par le scrum master notamment.  NEVER BASELINED.
-&gt;&gt;&gt; dynamic, never complete, existe tant que le produit existe.
-C'est </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la seule source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour tout changement du produit.     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optionnel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances. Le 1er sprint peut </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commencer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> même si le PB n'est pas complet. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Management : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> responsable et </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ordonne comme il veut selon SES critères </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(whatever is deemed most appropriateby the PO). It is allowed to grow and change.
-Items of the PB larger than the items in the sprint backlog.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">NOT DEFINED IN THE SCRUM FRAMEWORK, c'est juste une bonne pratique.
 An estimate of the total work remains till the end of the sprint, shows the evolution of remaining effort against time. This is a good practice, not mandatory in the scrum guide.
 NEW : KPI &gt; cumulative flow diagram : reduire la colonne "en cours".
@@ -1849,6 +1246,271 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Le PO, developers. BEFORE : "consume not more than 10% of the capacity of the developers"    NOW : capacité ou durée à l'appréciation.
+Not for the current sprint in progress, during the sprint in preparation for the next sprint(s).
+Ongoing process, ordering BP, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>act of adding detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Responsable : PO uniquement. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The entire team owns the items.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estimates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the developers after clarifying requirements with th PO.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any technique should be used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>representing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PB items. "owner" is NOT an attribute of the PB.
+Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le PB.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint. Il peut se faire aider par le scrum master notamment.  NEVER BASELINED. Considered complete when adheres to the DOD.
+&gt;&gt;&gt; dynamic, never complete, existe tant que le produit existe.
+C'est </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la seule source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour tout changement du produit.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optionnel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances. Le 1er sprint peut </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commencer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> même si le PB n'est pas complet. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Management : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> responsable et </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ordonne comme il veut selon SES critères </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(whatever is deemed most appropriateby the PO). It is allowed to grow and change.
+Items of the PB larger than the items in the sprint backlog.</t>
+    </r>
+  </si>
+  <si>
+    <t>4 heures max pour 1 mois et si moins alors "less", but : inspect the product increment, collect feedback.
+TOUT LE MONDE PEUT Y ASSISTER.   Formal presentation, possible de ne rien livrer.
+Review the output of the sprint and decide what to do next.</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">burndown chart &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
 La vélocité est une mesure de la </t>
     </r>
@@ -2092,12 +1754,400 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> release working software, additional features in a useable state.
-Validated learning : customer feedback.</t>
-    </r>
-  </si>
-  <si>
-    <t>corrigé le 07/03 18h15
-attention : testeur &gt;&gt;</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Validated learning </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: customer feedback.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>il y en a 3 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PB (product goal), sprint backlog (sprint goal), increment (DOD).   
+Inspect frequently, but it should not get in the way of the work.   Sprint goal provides guidance.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PILARS : TIA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; transparency (responsable scrum master), adaptation, inspection.
+Awareness of the artifacts : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">transparency </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(understandable by all stakeholders)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Si retard dû à un élément manquant, être sûr d'avoir des tâches à faire pour le prochain sprint en attendant.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 heures max, cérémonie scrum en fermeture du sprint, juste après la sprint Review.          </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C'est pour la scrum team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Moment of : Lessons learned.
+( pour les processus) Sert à </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>améliorer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour les prochains sprints, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>identifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ce qui a été bien, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>intend to promote continous process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>analyser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ce qui s'est passé &gt;&gt; &gt;&gt;&gt; people, relationships, process, and tool. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Most appropriate moment to change the DOD.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>improvement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> possible, include at least 1 high priority process for the next.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The PB items selected for this sprint + the plan for delivering them, it is the developer's plan.    NEW : Les questions sur le choix des user stories : why (sprint goal), what (PB items), how (tasks). (contains use case, tasks or user stories). </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The entire team owns the sprint backlog.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A prioritized list of tasks to be completed during the project. Finalized at sprint planning.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>changes during sprint:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>developers ONLY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (belongs solely, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>possible to add new work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).
+Utiliser la fin du dernier sprint pour plannifier </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>les premiers jours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> du nouveau sprint.
+La modification / rééstimations des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user stories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> est préférable à l'annulation d'un sprint.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2291,17 +2341,6 @@
     <r>
       <rPr>
         <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">à valider </t>
-    </r>
-    <r>
-      <rPr>
         <u/>
         <sz val="10"/>
         <color theme="1"/>
@@ -2336,13 +2375,17 @@
 Multiple scrum teams, same PB, same DOD.
 *BA : Business Analyst.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">corrigé le 08/03 09h37
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2465,8 +2508,17 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2878,7 +2930,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2899,10 +2951,10 @@
     </row>
     <row r="2" spans="1:3" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -2915,10 +2967,10 @@
     </row>
     <row r="4" spans="1:3" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
@@ -2934,7 +2986,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -2950,7 +3002,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
@@ -2966,7 +3018,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
@@ -2979,10 +3031,10 @@
     </row>
     <row r="12" spans="1:3" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5"/>
     </row>
@@ -2996,7 +3048,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>21</v>
@@ -3009,10 +3061,10 @@
     </row>
     <row r="16" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5"/>
     </row>
@@ -3023,10 +3075,10 @@
     </row>
     <row r="18" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -3040,7 +3092,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="5"/>
     </row>
@@ -3054,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -3068,7 +3120,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5"/>
     </row>
@@ -3082,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" s="5"/>
     </row>
@@ -3110,7 +3162,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -3124,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C32" s="5"/>
     </row>
@@ -3138,10 +3190,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3154,7 +3206,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>7</v>
@@ -3170,7 +3222,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="5"/>
     </row>
@@ -3198,7 +3250,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C42" s="5"/>
     </row>

--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4B842D-C0E7-4073-8434-54627F547BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D5F6E7-F692-428C-A6B8-268EB115E208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,118 +138,6 @@
     <t>Burnup/Burndown chart, KPI</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Servant leader in service of the organization, the PO and the developers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, helping developers to create value, removing impediments, coaching the developers, champion scrum, by facilitating developer decision-making.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Is responsible for conducting the Daily Scrum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. NOW : Il est </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>responsable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de la réussite de la scrum team, primary purpose at the daily scrum is to manage the time-box.
-Leading &amp; coaching org, working with other scrum masters, planning scrum implementations.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Facilitating</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and teaching scrum events, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>techniques for PB management</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, empirical env. 
-IS A MANAGEMENT POSITION, shielding from interruptions.
-Si le PO a des soucis avec les user stories, il peut les rédiger.</t>
-    </r>
-  </si>
-  <si>
     <t>Daily Scrum
 (événement scrum)
 (feedback loop)</t>
@@ -461,78 +349,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ANYONE CAN ATTEND, ONLY THE DEVELOPERS PARTICIPATE.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Plan of work for next 24h, inspecting work since the last, forecasting upcoming sprint work.
-15 minutes (OR LESS IN DURATION), peu importe la taille de l'équipe, debout ou pas, tous les jours, le matin, toujours au même endroit (reduces complexity).
-BEFORE : 3 questions &gt; hier, aujourd'hui, blocages. NOW : 3 questions SHOULD NOT TAKE PLACE, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">questions ou discussion, tout est possible </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(no specific format). 
-Team members synchronize their work and progress.</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Le scrum master ne la "conduit" pas.
-3 questions du scrum master : je vois les obstacles qui empêchent d'aller au but, j'ai vu hier ce qui peut aider les developers, je peux les aider aujourd'hui à atteindre ce but. 
---NO CANCELLATION ALLOWED--</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Produce a valuable and useful increment.</t>
     </r>
     <r>
@@ -678,156 +494,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>of the sprint : the delivery is working, functional, DONE.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sa responsabilité : la PB, pas le produit ni du delivery.
-Interêts : le produit, work (provide feedback) with the stackholders, ordering items, optimizing value, keep visible &amp; transparent the work on next, perform release planning, perform user acceptance, answer questions from the developers, estimates : business value.
-monitoring progress toward high-level </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>goals.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   He is the chief product </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>visionary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KVA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : current value, ability to innovate, time-to-market (expert).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pas le problème du PO :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> coach the developers, remove impediments to the developers.
-Iterating vision every sprint, planning features, articulating the product vision (early and often).    Software dependencies can influence the ordering.
-Releases ? C'est le PO </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>qui décide la mise en prod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">... the risk for the value, absorption by the customer, the costs and benefits, the constraints by the new release.Il peut </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>déléguer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'écriture des user-stories aux developers mais il en est responsable.
-Il n'assigne AUCUNE tâche aux developers.
-If not available for the developers, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>discuss the matter with the scrum master.</t>
     </r>
   </si>
   <si>
@@ -1150,6 +816,701 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Responsable : PO uniquement. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The entire team owns the items.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estimates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the developers after clarifying requirements with th PO.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any technique should be used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>representing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PB items. "owner" is NOT an attribute of the PB.
+Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le PB.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint. Il peut se faire aider par le scrum master notamment.  NEVER BASELINED. Considered complete when adheres to the DOD.
+&gt;&gt;&gt; dynamic, never complete, existe tant que le produit existe.
+C'est </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la seule source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour tout changement du produit.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optionnel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances. Le 1er sprint peut </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commencer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> même si le PB n'est pas complet. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Management : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> responsable et </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ordonne comme il veut selon SES critères </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(whatever is deemed most appropriateby the PO). It is allowed to grow and change.
+Items of the PB larger than the items in the sprint backlog.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>il y en a 3 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PB (product goal), sprint backlog (sprint goal), increment (DOD).   
+Inspect frequently, but it should not get in the way of the work.   Sprint goal provides guidance.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PILARS : TIA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; transparency (responsable scrum master), adaptation, inspection.
+Awareness of the artifacts : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">transparency </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(understandable by all stakeholders)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Si retard dû à un élément manquant, être sûr d'avoir des tâches à faire pour le prochain sprint en attendant.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 heures max, cérémonie scrum en fermeture du sprint, juste après la sprint Review.          </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C'est pour la scrum team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Moment of : Lessons learned.
+( pour les processus) Sert à </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>améliorer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour les prochains sprints, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>identifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ce qui a été bien, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>intend to promote continous process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>analyser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ce qui s'est passé &gt;&gt; &gt;&gt;&gt; people, relationships, process, and tool. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Most appropriate moment to change the DOD.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>improvement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> possible, include at least 1 high priority process for the next.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 seul PO par projet,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">origine scrum : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empirisme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (xp) et </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pensée lean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BEFORE : dev team &gt; BA*, testeur, dev inf. NOW : developers &gt; BA, developers inf.
+BEFORE : scrum team &gt; PO, SM, dev team. NOW : scrum team &gt; developers, PO, SM.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BEFORE : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dev team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; entre 3 et 9 personnes. NOW : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scrum team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 10 personnes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximum</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scrum has no tester role, everyone in the scrum team is responsible for quality.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On évite pas les problèmes en agilité, on va au devant des problèmes pour les résoudre.
+Multiple scrum teams, same PB, same DOD.
+*BA : Business Analyst.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">NOT DEFINED IN THE SCRUM FRAMEWORK, c'est juste une bonne pratique.
 An estimate of the total work remains till the end of the sprint, shows the evolution of remaining effort against time. This is a good practice, not mandatory in the scrum guide.
 NEW : KPI &gt; cumulative flow diagram : reduire la colonne "en cours".
@@ -1179,10 +1540,451 @@
       <t xml:space="preserve">
 Responsable : developers.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Scrum master, product owner, developers.  
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "will likely be completed"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The PB items selected for this sprint + the plan for delivering them, it is the developer's plan.    NEW : Les questions sur le choix des user stories : why (sprint goal), what (PB items), how (tasks). (contains use case, tasks or user stories). </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The entire team owns the sprint backlog.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A prioritized list of tasks/requirements to be completed during the project. Finalized at sprint planning.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>changes during sprint:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>developers ONLY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (belongs solely, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>possible to add new work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).
+Utiliser la fin du dernier sprint pour plannifier </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>les premiers jours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> du nouveau sprint.
+La modification / rééstimations des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user stories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> est préférable à l'annulation d'un sprint.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">burndown chart &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
+La vélocité est une mesure de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maturité</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
+Composition des équipes de dev en fonction de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"self-organization"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Developers : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adjustments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to its engineering practices whenever needed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User story</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
+Méthode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moscow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prioriser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selon les points accordés aux Should et Could.
+Planning Poker : story points estimés avec la business value et la complexité de dév.
+(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dette technique : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non respect de la conception voulue ou non induisant des coûts supplémentaires vus comme des interêts : budget spent + velocity reduced..
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Time-box </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: it can take NO MORE than. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PO et scrum master could be part</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the developers.
+Customer feedback : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validated learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Incremental delivery :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> release working software, additional features in a useable state.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Validated learning </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: customer feedback.  </t>
+    </r>
+  </si>
+  <si>
+    <t>4 heures max pour 1 mois et si moins alors "less", but : inspect the product increment, collect feedback. PO presents itens DONE.
+TOUT LE MONDE PEUT Y ASSISTER.   Formal presentation, possible de ne rien livrer.
+Review the output of the sprint and decide what to do next.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scrum master, product owner, developers.  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creates the sprint goal.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Différentes équipes scrum d'un même produit peuvent NE PAS avoir des sprints de longueur différente (does not require) et ne pas avoir de sprint "alignés".
 Elle fait le SPRINT PLANNING, responsible for crafting the sprint goal during it. Elle doit être autosuffisante. </t>
     </r>
@@ -1243,10 +2045,52 @@
       </rPr>
       <t>collaborates and supports its team members.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Le PO, developers. BEFORE : "consume not more than 10% of the capacity of the developers"    NOW : capacité ou durée à l'appréciation.
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Least likely to be used : WBS, Gantt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le PO, developers. BEFORE : "consume not more than 10% of the capacity of the developers"    NOW : capacité ou durée à l'appréciation. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scrum teams may participate for all estimates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
 Not for the current sprint in progress, during the sprint in preparation for the next sprint(s).
 Ongoing process, ordering BP, </t>
     </r>
@@ -1274,21 +2118,336 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Responsable : PO uniquement. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The entire team owns the items.</t>
-    </r>
-    <r>
-      <rPr>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Servant leader in service of the organization, the PO and the developers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, helping developers to create value, removing impediments, coaching the developers, champion scrum, by facilitating developer decision-making.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is responsible for conducting the Daily Scrum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. NOW : Il est </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>responsable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la réussite de la scrum team, primary purpose at the daily scrum is to manage the time-box.
+Leading &amp; coaching org, working with other scrum masters, planning scrum implementations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Facilitating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and teaching scrum events, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>techniques for PB management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, empirical env. 
+IS A MANAGEMENT POSITION (managing performance of the scrum team), shielding from interruptions. Si le PO a des soucis avec les user stories, il peut les rédiger.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sa responsabilité : la PB, pas le produit ni du delivery.
+Interêts : le produit, work (provide feedback) with the stackholders, ordering items, optimizing value, keep visible &amp; transparent the work on next, perform release planning, perform user acceptance, answer questions from the developers, estimates : business value.
+monitoring progress toward high-level </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>goals.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   He is the chief product </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : current value, ability to innovate, time-to-market (expert).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pas le problème du PO :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> coach the developers, remove impediments to the developers.
+Iterating vision every sprint, planning features, articulating the product vision (early and often).    Software dependencies can influence the ordering.
+Releases ? C'est le PO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qui décide la mise en prod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">... the risk for the value, absorption by the customer, the costs and benefits, the constraints by the new release.Il peut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>déléguer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'écriture des user-stories aux developers mais il en est responsable.
+Il n'assigne AUCUNE tâche aux developers. Can participate in the daily scrum.
+If not available for the developers, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>discuss the matter with the scrum master.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANYONE CAN ATTEND, ONLY THE DEVELOPERS PARTICIPATE.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Plan of work for next 24h, inspecting work since the last, forecasting upcoming sprint work.
+15 minutes (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR LESS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IN DURATION), peu importe la taille de l'équipe, debout ou pas, tous les jours, le matin, toujours au même endroit (reduces complexity).
+BEFORE : 3 questions &gt; hier, aujourd'hui, blocages. NOW : 3 questions SHOULD NOT TAKE PLACE, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">questions ou discussion, tout est possible </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(no specific format). 
+Team members synchronize their work and progress.</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1300,1084 +2459,19 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Estimates</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : the developers after clarifying requirements with th PO.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Any technique should be used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>representing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PB items. "owner" is NOT an attribute of the PB.
-Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le PB.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ready</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : well refined, at the top, can be done in 1 sprint. Il peut se faire aider par le scrum master notamment.  NEVER BASELINED. Considered complete when adheres to the DOD.
-&gt;&gt;&gt; dynamic, never complete, existe tant que le produit existe.
-C'est </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la seule source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour tout changement du produit.     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optionnel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : tests prouvant le "done" et les dépendances. Le 1er sprint peut </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commencer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> même si le PB n'est pas complet. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Management : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> responsable et </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ordonne comme il veut selon SES critères </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(whatever is deemed most appropriateby the PO). It is allowed to grow and change.
-Items of the PB larger than the items in the sprint backlog.</t>
-    </r>
-  </si>
-  <si>
-    <t>4 heures max pour 1 mois et si moins alors "less", but : inspect the product increment, collect feedback.
-TOUT LE MONDE PEUT Y ASSISTER.   Formal presentation, possible de ne rien livrer.
-Review the output of the sprint and decide what to do next.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">burndown chart &gt;&gt; tous ces termes n'existent pas dans le guide scrum.
-La vélocité est une mesure de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maturité</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de l'équipe, pas un indice de réussite.
-Composition des équipes de dev en fonction de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"self-organization"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Developers : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Adjustments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to its engineering practices whenever needed.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User story</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : se rédige comme suit : en tant que, je veux, afin de. 
-Méthode </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moscow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prioriser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> selon les points accordés aux Should et Could.
-Planning Poker : story points estimés avec la business value et la complexité de dév.
-(points des dev : prendre le max et le min, si trop grand écart, réévaluer sinon la moyenne).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dette technique : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">non respect de la conception voulue ou non induisant des coûts supplémentaires vus comme des interêts : budget spent + velocity reduced..
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Time-box </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: it can take NO MORE than. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PO et scrum master could be part</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of the developers.
-Customer feedback : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>validated learning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Incremental delivery :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> release working software, additional features in a useable state.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Validated learning </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: customer feedback.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>il y en a 3 :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PB (product goal), sprint backlog (sprint goal), increment (DOD).   
-Inspect frequently, but it should not get in the way of the work.   Sprint goal provides guidance.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PILARS : TIA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt; transparency (responsable scrum master), adaptation, inspection.
-Awareness of the artifacts : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">transparency </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(understandable by all stakeholders)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Si retard dû à un élément manquant, être sûr d'avoir des tâches à faire pour le prochain sprint en attendant.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3 heures max, cérémonie scrum en fermeture du sprint, juste après la sprint Review.          </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C'est pour la scrum team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Moment of : Lessons learned.
-( pour les processus) Sert à </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>améliorer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour les prochains sprints, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>identifier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ce qui a été bien, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>intend to promote continous process</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>analyser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ce qui s'est passé &gt;&gt; &gt;&gt;&gt; people, relationships, process, and tool. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Most appropriate moment to change the DOD.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-if </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>improvement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> possible, include at least 1 high priority process for the next.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The PB items selected for this sprint + the plan for delivering them, it is the developer's plan.    NEW : Les questions sur le choix des user stories : why (sprint goal), what (PB items), how (tasks). (contains use case, tasks or user stories). </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The entire team owns the sprint backlog.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-A prioritized list of tasks to be completed during the project. Finalized at sprint planning.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>changes during sprint:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>developers ONLY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (belongs solely, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>possible to add new work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).
-Utiliser la fin du dernier sprint pour plannifier </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>les premiers jours</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> du nouveau sprint.
-La modification / rééstimations des </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>user stories</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> est préférable à l'annulation d'un sprint.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1 seul PO par projet,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">origine scrum : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>empirisme</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (xp) et </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pensée lean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BEFORE : dev team &gt; BA*, testeur, dev inf. NOW : developers &gt; BA, developers inf.
-BEFORE : scrum team &gt; PO, SM, dev team. NOW : scrum team &gt; developers, PO, SM.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">BEFORE : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dev team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; entre 3 et 9 personnes. NOW : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scrum team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; 10 personnes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maximum</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scrum has no tester role, everyone in the scrum team is responsible for quality.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>On évite pas les problèmes en agilité, on va au devant des problèmes pour les résoudre.
-Multiple scrum teams, same PB, same DOD.
-*BA : Business Analyst.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigé le 08/03 09h37
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le scrum master ne la "conduit" pas.
+3 questions du scrum master : je vois les obstacles qui empêchent d'aller au but, j'ai vu hier ce qui peut aider les developers, je peux les aider aujourd'hui à atteindre ce but. 
+--NO CANCELLATION ALLOWED--</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">corrigé le 08/03 15h36
 </t>
   </si>
 </sst>
@@ -2583,7 +2677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2641,6 +2735,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2954,7 +3051,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -2970,7 +3067,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
@@ -2986,7 +3083,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -3002,7 +3099,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
@@ -3018,7 +3115,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
@@ -3031,10 +3128,10 @@
     </row>
     <row r="12" spans="1:3" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5"/>
     </row>
@@ -3048,7 +3145,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>21</v>
@@ -3061,9 +3158,9 @@
     </row>
     <row r="16" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="5"/>
@@ -3075,10 +3172,10 @@
     </row>
     <row r="18" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -3092,7 +3189,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5"/>
     </row>
@@ -3106,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -3120,7 +3217,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="5"/>
     </row>
@@ -3134,7 +3231,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C26" s="5"/>
     </row>
@@ -3162,7 +3259,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -3176,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C32" s="5"/>
     </row>
@@ -3190,10 +3287,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3206,7 +3303,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>7</v>
@@ -3222,7 +3319,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C38" s="5"/>
     </row>
@@ -3250,7 +3347,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="5"/>
     </row>

--- a/prepa_certif_updated_scrum_questions_faites.xlsx
+++ b/prepa_certif_updated_scrum_questions_faites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C988D3-D57F-423B-A7BF-B1CA43509FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1BFA6F-0905-4F8A-82AA-2CCCA781EE5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15696" yWindow="3804" windowWidth="12288" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1134,197 +1134,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Responsable : PO uniquement. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The entire team owns the items.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NEVER BASELINED. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Estimates</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : the developers after clarifying requirements with th PO.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Any technique used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>representing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PB items. "owner" is NOT an attribute of the PB.
-Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le PB.
-Considered complete when adheres to the DOD, dynamic, never complete.
-C'est </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la seule source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour tout changement du produit. 
-Le 1er sprint peut </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commencer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> même si le PB n'est pas complet. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Management : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> responsable, ordering : whatever is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deemed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> most appropriateby the PO). It is allowed to grow and change. Items of the PB larger than the items in the sprint backlog.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Peut possiblement </t>
     </r>
     <r>
@@ -1439,113 +1248,6 @@
       </rPr>
       <t xml:space="preserve">). 
 C'est la somme de tous les PB items and the value, fait par les developers, valuable when it reduces operational costs and increases customer satisfasfaction, includes regression testing. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Scrum master, product owner, developers, they c</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reate the sprint goal.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Différentes équipes scrum d'un même produit peuvent NE PAS avoir des sprints de longueur différente (does not require) et ne pas avoir de sprint "alignés".
-Elle fait le SPRINT PLANNING, elle doit être autosuffisante. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Increased creativity, commitment and feeling of accountability</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Qualités importantes : flexibility, creativity, productivity.
-Should have all competencies, should choose how best to accomplish their work.
-If a 2nd scrum team is added, productivity is likely to </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>decrease</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-BEFORE : self-organizing (make local decisions), 
-NOW : self-managing, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>collaborates and supports its team members.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Least likely to be used : WBS, Gantt.</t>
     </r>
   </si>
   <si>
@@ -2343,7 +2045,326 @@
     </r>
   </si>
   <si>
-    <t>corrigé le 09/03 13h10</t>
+    <r>
+      <t>Scrum master, product owner, developers, they c</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reate the sprint goal.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Différentes équipes scrum d'un même produit peuvent NE PAS avoir des sprints de longueur différente (does not require) et ne pas avoir de sprint "alignés".
+Elle fait le SPRINT PLANNING, elle doit être autosuffisante. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Increased creativity, commitment and feeling of accountability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Qualités importantes : flexibility, creativity, productivity.
+Should have all competencies, should choose how best to accomplish their work.
+If a 2nd scrum team is added, productivity is likely to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decrease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+BEFORE : self-organizing (make local decisions), convert items to done : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>velocity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+NOW : self-managing, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>collaborates and supports its team members.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Least likely to be used : WBS, Gantt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Responsable : PO uniquement. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The entire team owns the items.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NEVER BASELINED. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estimates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the developers after clarifying requirements with th PO.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any technique used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>representing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PB items. "owner" is NOT an attribute of the PB.
+Ce qui n'est pas fini n'est pas reporté au prochain sprint, c'est mis dans le PB.
+Considered complete when adheres to the DOD, dynamic, never complete.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It is the only source of requirements for any changes to be made.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Le 1er sprint peut </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commencer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> même si le PB n'est pas complet. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Management : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> responsable, ordering : whatever is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deemed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> most appropriateby the PO). It is allowed to grow and change. Items of the PB larger than the items in the sprint backlog.</t>
+    </r>
+  </si>
+  <si>
+    <t>corrigé le 16/03 15h18</t>
   </si>
 </sst>
 </file>
@@ -2938,7 +2959,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -2986,7 +3007,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
@@ -3060,7 +3081,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C20" s="5"/>
     </row>
@@ -3102,7 +3123,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="5"/>
     </row>
@@ -3116,7 +3137,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5"/>
     </row>
@@ -3130,7 +3151,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -3144,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5"/>
     </row>
@@ -3158,7 +3179,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>24</v>
@@ -3174,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>7</v>
@@ -3190,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="5"/>
     </row>
@@ -3204,7 +3225,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="5"/>
     </row>
@@ -3218,7 +3239,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="5"/>
     </row>
